--- a/Reports/ZacksRank/TanzyPenny.xlsx
+++ b/Reports/ZacksRank/TanzyPenny.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5604" uniqueCount="304">
   <si>
     <t>RAD</t>
   </si>
@@ -815,6 +815,123 @@
   </si>
   <si>
     <t>Hold       ($8.30)</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Hold       ($1.77)</t>
+  </si>
+  <si>
+    <t>UN         ($1.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.02)</t>
+  </si>
+  <si>
+    <t>UN         ($4.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.42)</t>
+  </si>
+  <si>
+    <t>UN         ($8.71)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.80)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.70)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.18)</t>
+  </si>
+  <si>
+    <t>UN         ($0.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.63)</t>
+  </si>
+  <si>
+    <t>Sell       ($4.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.59)</t>
+  </si>
+  <si>
+    <t>UN         ($3.58)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.74)</t>
+  </si>
+  <si>
+    <t>UN         ($2.53)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($4.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.35)</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
+  </si>
+  <si>
+    <t>Sell       ($8.05)</t>
+  </si>
+  <si>
+    <t>Jun_18</t>
+  </si>
+  <si>
+    <t>Hold       ($1.90)</t>
+  </si>
+  <si>
+    <t>UN         ($1.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.37)</t>
+  </si>
+  <si>
+    <t>UN         ($8.08)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.19)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.73)</t>
+  </si>
+  <si>
+    <t>Sell       ($4.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.58)</t>
+  </si>
+  <si>
+    <t>UN         ($3.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.75)</t>
+  </si>
+  <si>
+    <t>UN         ($2.75)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($4.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.25)</t>
   </si>
 </sst>
 </file>
@@ -838,7 +955,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,6 +1037,36 @@
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -933,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -948,7 +1095,10 @@
     <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1278,9 +1428,9 @@
     <col min="6" max="6" customWidth="true" width="15.1640625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="15.1640625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.1640625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="12.6640625" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="12.6640625" collapsed="true"/>
@@ -1288,66 +1438,78 @@
     <col min="16" max="16" customWidth="true" width="12.6640625" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="12.6640625" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1356,60 +1518,69 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1418,60 +1589,69 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>56</v>
       </c>
       <c r="P3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="T3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="W3" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1480,60 +1660,69 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="T4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="U4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="W4" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1542,60 +1731,69 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="Q5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="R5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="S5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="T5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="U5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="W5" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1604,60 +1802,69 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="Q6" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="R6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="W6" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1666,60 +1873,69 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>44</v>
       </c>
       <c r="Q7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="U7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="V7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="W7" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1728,60 +1944,69 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="M8" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="N8" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="P8" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="Q8" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="R8" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="S8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="T8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="U8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="V8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="0" t="s">
+      <c r="W8" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1790,60 +2015,69 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="N9" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="Q9" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="R9" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="S9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="T9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="U9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="V9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="W9" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1852,60 +2086,69 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="N10" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="Q10" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="R10" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="S10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="T10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="U10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="V10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="W10" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1914,60 +2157,69 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="L11" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="N11" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="O11" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="P11" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="Q11" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="R11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="T11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="U11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="V11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="W11" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1976,60 +2228,69 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>65</v>
       </c>
       <c r="I12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="M12" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="N12" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="O12" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="P12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="Q12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="R12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="S12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="T12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="U12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="V12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="W12" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2037,61 +2298,70 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="O13" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="P13" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="Q13" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="R13" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="0" t="s">
+      <c r="S13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="T13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="U13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="V13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="0" t="s">
+      <c r="W13" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2100,60 +2370,69 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="I14" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="K14" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="L14" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="M14" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="N14" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="O14" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="P14" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="Q14" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="R14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="P14" s="0" t="s">
+      <c r="S14" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="T14" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="U14" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="V14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="W14" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2162,60 +2441,69 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="J15" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="K15" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="L15" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="M15" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="N15" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="O15" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="P15" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="Q15" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="R15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="0" t="s">
+      <c r="S15" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="T15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="0" t="s">
+      <c r="U15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="0" t="s">
+      <c r="V15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T15" s="0" t="s">
+      <c r="W15" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2224,60 +2512,69 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="I16" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="J16" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="K16" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="L16" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="M16" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="N16" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="O16" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="P16" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="Q16" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="R16" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="P16" s="0" t="s">
+      <c r="S16" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="Q16" s="0" t="s">
+      <c r="T16" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="0" t="s">
+      <c r="U16" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="S16" s="0" t="s">
+      <c r="V16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="0" t="s">
+      <c r="W16" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2286,60 +2583,69 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="F17" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="I17" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="J17" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="K17" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="L17" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>70</v>
+      <c r="O17" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="P17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="0" t="s">
+      <c r="Q17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="U17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="V17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="W17" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2348,60 +2654,69 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>118</v>
       </c>
       <c r="I18" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="M18" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="N18" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="O18" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="P18" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="Q18" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="R18" s="0" t="s">
         <v>38</v>
       </c>
       <c r="S18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="W18" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2410,60 +2725,69 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="I19" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="J19" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="K19" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="L19" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="M19" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="N19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="O19" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="P19" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="Q19" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="R19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="P19" s="0" t="s">
+      <c r="S19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="0" t="s">
+      <c r="T19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="U19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="V19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="0" t="s">
+      <c r="W19" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2472,24 +2796,33 @@
         <v>152</v>
       </c>
       <c r="B20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="I20" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="J20" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2498,24 +2831,33 @@
         <v>153</v>
       </c>
       <c r="B21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="J21" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="K21" s="0" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2524,24 +2866,33 @@
         <v>154</v>
       </c>
       <c r="B22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="J22" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2550,24 +2901,33 @@
         <v>155</v>
       </c>
       <c r="B23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="H23" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="I23" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="J23" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="K23" s="0" t="s">
         <v>176</v>
       </c>
     </row>

--- a/Reports/ZacksRank/TanzyPenny.xlsx
+++ b/Reports/ZacksRank/TanzyPenny.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8559" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10759" uniqueCount="394">
   <si>
     <t>RAD</t>
   </si>
@@ -1103,6 +1103,105 @@
   </si>
   <si>
     <t>StrongBuy  ($4.50)</t>
+  </si>
+  <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Hold       ($1.96)</t>
+  </si>
+  <si>
+    <t>UN         ($1.40)</t>
+  </si>
+  <si>
+    <t>UN         ($3.96)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.94)</t>
+  </si>
+  <si>
+    <t>UN         ($7.28)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.46)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.33)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.86)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.16)</t>
+  </si>
+  <si>
+    <t>Sell       ($4.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.48)</t>
+  </si>
+  <si>
+    <t>UN         ($3.39)</t>
+  </si>
+  <si>
+    <t>UN         ($2.72)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($4.37)</t>
+  </si>
+  <si>
+    <t>Jun_27</t>
+  </si>
+  <si>
+    <t>Hold       ($1.98)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.76)</t>
+  </si>
+  <si>
+    <t>UN         ($3.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.88)</t>
+  </si>
+  <si>
+    <t>UN         ($6.88)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.26)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.96)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.41)</t>
+  </si>
+  <si>
+    <t>UN         ($2.69)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($4.23)</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1286,6 +1385,46 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
       </patternFill>
     </fill>
     <fill>
@@ -1311,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -1396,6 +1535,54 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1403,15 +1590,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1753,8 +1936,8 @@
     <col min="12" max="12" customWidth="true" width="15.1640625" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="15.1640625" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.1640625" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="12.6640625" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="12.6640625" collapsed="true"/>
     <col min="19" max="19" customWidth="true" width="12.6640625" collapsed="true"/>
@@ -1763,84 +1946,92 @@
     <col min="22" max="22" customWidth="true" width="12.6640625" collapsed="true"/>
     <col min="23" max="23" customWidth="true" width="12.6640625" collapsed="true"/>
     <col min="24" max="24" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1848,79 +2039,85 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="128" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="E2" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>53</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="Y2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="AA2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="AB2" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1928,59 +2125,59 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="129" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" s="85" t="s">
         <v>342</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="E3" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="F3" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>216</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>216</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="T3" s="0" t="s">
         <v>56</v>
@@ -1989,18 +2186,24 @@
         <v>56</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="X3" s="0" t="s">
         <v>25</v>
       </c>
       <c r="Y3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="AB3" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2008,79 +2211,85 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="130" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="E4" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="F4" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="G4" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>198</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="T4" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="U4" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="W4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="X4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="Y4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="Z4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="AA4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="0" t="s">
+      <c r="AB4" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2088,79 +2297,85 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="131" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="87" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="E5" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="F5" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="G5" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="Q5" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="S5" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="U5" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="W5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="X5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="Y5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="Z5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="AA5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="AB5" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2168,79 +2383,85 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="132" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="E6" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="F6" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="Q6" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="R6" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="W6" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="X6" s="0" t="s">
         <v>25</v>
       </c>
       <c r="Y6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="0" t="s">
+      <c r="AB6" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2248,79 +2469,85 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="133" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="111" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="89" t="s">
         <v>346</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="E7" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="F7" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="G7" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="Q7" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="R7" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="S7" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="T7" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="U7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="V7" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="W7" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="X7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="W7" s="0" t="s">
+      <c r="Y7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="X7" s="0" t="s">
+      <c r="Z7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="AA7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="Z7" s="0" t="s">
+      <c r="AB7" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2328,79 +2555,85 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="134" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="112" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="90" t="s">
         <v>347</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="E8" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="F8" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="G8" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="M8" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="N8" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="P8" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="Q8" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="R8" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="S8" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="T8" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="U8" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="T8" s="0" t="s">
+      <c r="V8" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="W8" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="X8" s="0" t="s">
         <v>25</v>
       </c>
       <c r="Y8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="0" t="s">
+      <c r="AB8" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2408,79 +2641,85 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="135" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="91" t="s">
         <v>348</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="E9" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="F9" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="G9" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="N9" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>124</v>
       </c>
       <c r="R9" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="T9" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="U9" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="V9" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="W9" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="X9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="Y9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="X9" s="0" t="s">
+      <c r="Z9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="Y9" s="0" t="s">
+      <c r="AA9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z9" s="0" t="s">
+      <c r="AB9" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2488,79 +2727,85 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="136" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="114" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="E10" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="F10" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="G10" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>203</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>203</v>
       </c>
       <c r="M10" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="Q10" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="R10" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="S10" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="T10" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="U10" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="V10" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="W10" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="X10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="W10" s="0" t="s">
+      <c r="Y10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="X10" s="0" t="s">
+      <c r="Z10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Y10" s="0" t="s">
+      <c r="AA10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z10" s="0" t="s">
+      <c r="AB10" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2568,79 +2813,85 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="137" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="E11" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="F11" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="G11" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="L11" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="N11" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="O11" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="P11" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="Q11" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="P11" s="0" t="s">
+      <c r="R11" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="S11" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="T11" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="U11" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="V11" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="W11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="Y11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="0" t="s">
+      <c r="Z11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Y11" s="0" t="s">
+      <c r="AA11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Z11" s="0" t="s">
+      <c r="AB11" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2648,79 +2899,85 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="138" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="E12" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="F12" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="G12" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>65</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>65</v>
       </c>
       <c r="O12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="R12" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="S12" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="T12" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="U12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="V12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="W12" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="V12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="W12" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="X12" s="0" t="s">
         <v>25</v>
       </c>
       <c r="Y12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z12" s="0" t="s">
+      <c r="AB12" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2728,79 +2985,85 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="117" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" s="95" t="s">
         <v>351</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="E13" s="73" t="s">
         <v>332</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="F13" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="G13" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="O13" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="P13" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="R13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="S13" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="T13" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>80</v>
       </c>
       <c r="U13" s="0" t="s">
         <v>66</v>
       </c>
       <c r="V13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="W13" s="0" t="s">
+      <c r="Y13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="X13" s="0" t="s">
+      <c r="Z13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="Y13" s="0" t="s">
+      <c r="AA13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z13" s="0" t="s">
+      <c r="AB13" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2808,79 +3071,85 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="140" t="s">
+        <v>386</v>
+      </c>
+      <c r="C14" s="118" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="96" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="E14" s="74" t="s">
         <v>333</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="F14" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="G14" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="H14" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="J14" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="L14" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="M14" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="N14" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="O14" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="P14" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="Q14" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="P14" s="0" t="s">
+      <c r="R14" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="S14" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="T14" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="U14" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="V14" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="W14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V14" s="0" t="s">
+      <c r="X14" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="W14" s="0" t="s">
+      <c r="Y14" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="X14" s="0" t="s">
+      <c r="Z14" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Y14" s="0" t="s">
+      <c r="AA14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z14" s="0" t="s">
+      <c r="AB14" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2888,79 +3157,85 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="141" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15" s="119" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" s="97" t="s">
         <v>353</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="E15" s="75" t="s">
         <v>334</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="F15" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="G15" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="J15" s="0" t="s">
         <v>258</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>224</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>224</v>
       </c>
       <c r="L15" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="N15" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="O15" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="P15" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="Q15" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="P15" s="0" t="s">
+      <c r="R15" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="S15" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="R15" s="0" t="s">
+      <c r="T15" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="S15" s="0" t="s">
+      <c r="U15" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="T15" s="0" t="s">
+      <c r="V15" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="U15" s="0" t="s">
+      <c r="W15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="V15" s="0" t="s">
+      <c r="X15" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="W15" s="0" t="s">
+      <c r="Y15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="X15" s="0" t="s">
+      <c r="Z15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Y15" s="0" t="s">
+      <c r="AA15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Z15" s="0" t="s">
+      <c r="AB15" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2968,79 +3243,85 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="142" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" s="120" t="s">
+        <v>372</v>
+      </c>
+      <c r="D16" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="E16" s="76" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="F16" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="G16" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="I16" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="J16" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="K16" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="L16" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="M16" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="N16" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="O16" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="P16" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="Q16" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="P16" s="0" t="s">
+      <c r="R16" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="Q16" s="0" t="s">
+      <c r="S16" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="R16" s="0" t="s">
+      <c r="T16" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="S16" s="0" t="s">
+      <c r="U16" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="T16" s="0" t="s">
+      <c r="V16" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="U16" s="0" t="s">
+      <c r="W16" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="V16" s="0" t="s">
+      <c r="X16" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="W16" s="0" t="s">
+      <c r="Y16" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="X16" s="0" t="s">
+      <c r="Z16" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Y16" s="0" t="s">
+      <c r="AA16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Z16" s="0" t="s">
+      <c r="AB16" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3048,79 +3329,85 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="143" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>373</v>
+      </c>
+      <c r="D17" s="99" t="s">
         <v>355</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="E17" s="77" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="F17" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="G17" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="I17" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="J17" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="K17" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>208</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>208</v>
       </c>
       <c r="M17" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="O17" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="P17" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="Q17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="0" t="s">
+      <c r="R17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="0" t="s">
+      <c r="S17" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="T17" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="U17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="W17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="V17" s="0" t="s">
+      <c r="X17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="W17" s="0" t="s">
+      <c r="Y17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="X17" s="0" t="s">
+      <c r="Z17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="Y17" s="0" t="s">
+      <c r="AA17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z17" s="0" t="s">
+      <c r="AB17" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3128,79 +3415,85 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="144" t="s">
+        <v>390</v>
+      </c>
+      <c r="C18" s="122" t="s">
+        <v>374</v>
+      </c>
+      <c r="D18" s="100" t="s">
         <v>356</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="E18" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="F18" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="G18" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="J18" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="K18" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="L18" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="M18" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="N18" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="O18" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="P18" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="Q18" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="P18" s="0" t="s">
+      <c r="R18" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="Q18" s="0" t="s">
+      <c r="S18" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="R18" s="0" t="s">
+      <c r="T18" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="0" t="s">
+      <c r="U18" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="V18" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="U18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="V18" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="W18" s="0" t="s">
         <v>38</v>
       </c>
       <c r="X18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="Y18" s="0" t="s">
+      <c r="Z18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Z18" s="0" t="s">
+      <c r="AB18" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3208,79 +3501,85 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="145" t="s">
+        <v>320</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" s="101" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="E19" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="F19" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="G19" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="I19" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="J19" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="K19" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="L19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="M19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="N19" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="O19" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="P19" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="Q19" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="P19" s="0" t="s">
+      <c r="R19" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="Q19" s="0" t="s">
+      <c r="S19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="T19" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="U19" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="T19" s="0" t="s">
+      <c r="V19" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="U19" s="0" t="s">
+      <c r="W19" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="V19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="W19" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="X19" s="0" t="s">
         <v>25</v>
       </c>
       <c r="Y19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z19" s="0" t="s">
+      <c r="AB19" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3288,43 +3587,49 @@
       <c r="A20" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="146" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" s="124" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="E20" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="F20" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="G20" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="I20" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="J20" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="L20" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="M20" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="N20" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="O20" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="P20" s="0" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3332,43 +3637,49 @@
       <c r="A21" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="147" t="s">
+        <v>392</v>
+      </c>
+      <c r="C21" s="125" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="E21" s="81" t="s">
         <v>321</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="F21" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="G21" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="J21" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="K21" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="L21" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="M21" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="N21" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="O21" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="N21" s="0" t="s">
+      <c r="P21" s="0" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3376,43 +3687,49 @@
       <c r="A22" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="148" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>377</v>
+      </c>
+      <c r="D22" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="E22" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="F22" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="G22" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="J22" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="K22" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="L22" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="M22" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="N22" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="O22" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="P22" s="9" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3420,43 +3737,49 @@
       <c r="A23" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="149" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="127" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="E23" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="F23" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="G23" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="H23" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="I23" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="J23" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="K23" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="L23" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="M23" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="N23" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="O23" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="P23" s="0" t="s">
         <v>176</v>
       </c>
     </row>

--- a/Reports/ZacksRank/TanzyPenny.xlsx
+++ b/Reports/ZacksRank/TanzyPenny.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10759" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102564" uniqueCount="1052">
   <si>
     <t>RAD</t>
   </si>
@@ -1202,6 +1202,1980 @@
   </si>
   <si>
     <t>StrongBuy  ($4.23)</t>
+  </si>
+  <si>
+    <t>Jul_01</t>
+  </si>
+  <si>
+    <t>Buy        ($1.73)</t>
+  </si>
+  <si>
+    <t>UN         ($1.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.35)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.78)</t>
+  </si>
+  <si>
+    <t>UN         ($4.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.73)</t>
+  </si>
+  <si>
+    <t>UN         ($7.35)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.36)</t>
+  </si>
+  <si>
+    <t>Sell       ($4.45)</t>
+  </si>
+  <si>
+    <t>UN         ($3.90)</t>
+  </si>
+  <si>
+    <t>UN         ($2.45)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($4.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.20)</t>
+  </si>
+  <si>
+    <t>Jul_02</t>
+  </si>
+  <si>
+    <t>Buy        ($1.68)</t>
+  </si>
+  <si>
+    <t>UN         ($1.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.31)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.88)</t>
+  </si>
+  <si>
+    <t>UN         ($4.25)</t>
+  </si>
+  <si>
+    <t>UN         ($7.55)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.79)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.42)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.58)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.18)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.33)</t>
+  </si>
+  <si>
+    <t>UN         ($3.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.34)</t>
+  </si>
+  <si>
+    <t>UN         ($2.09)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($4.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.60)</t>
+  </si>
+  <si>
+    <t>Jul_08</t>
+  </si>
+  <si>
+    <t>Buy        ($1.74)</t>
+  </si>
+  <si>
+    <t>UN         ($4.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.75)</t>
+  </si>
+  <si>
+    <t>UN         ($7.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.93)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.44)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.29)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.41)</t>
+  </si>
+  <si>
+    <t>UN         ($4.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.44)</t>
+  </si>
+  <si>
+    <t>UN         ($2.10)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($4.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.05)</t>
+  </si>
+  <si>
+    <t>Jul_18</t>
+  </si>
+  <si>
+    <t>Hold       ($1.76)</t>
+  </si>
+  <si>
+    <t>UN         ($1.10)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($3.56)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.09)</t>
+  </si>
+  <si>
+    <t>UN         ($4.36)</t>
+  </si>
+  <si>
+    <t>UN         ($7.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.12)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.66)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.39)</t>
+  </si>
+  <si>
+    <t>UN         ($3.93)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.45)</t>
+  </si>
+  <si>
+    <t>UN         ($2.57)</t>
+  </si>
+  <si>
+    <t>Jul_20</t>
+  </si>
+  <si>
+    <t>UN         ($1.16)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.11)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.98)</t>
+  </si>
+  <si>
+    <t>UN         ($7.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.83)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.55)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.43)</t>
+  </si>
+  <si>
+    <t>UN         ($3.72)</t>
+  </si>
+  <si>
+    <t>UN         ($2.44)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($4.70)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.10)</t>
+  </si>
+  <si>
+    <t>Jul_24</t>
+  </si>
+  <si>
+    <t>UN         ($1.12)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($2.94)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.90)</t>
+  </si>
+  <si>
+    <t>UN         ($4.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.74)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.38)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.39)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($4.84)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.35)</t>
+  </si>
+  <si>
+    <t>UN         ($5.23)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.41)</t>
+  </si>
+  <si>
+    <t>UN         ($2.32)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($4.79)</t>
+  </si>
+  <si>
+    <t>Buy        ($9.70)</t>
+  </si>
+  <si>
+    <t>Jul_29</t>
+  </si>
+  <si>
+    <t>UN         ($0.98)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.76)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.85)</t>
+  </si>
+  <si>
+    <t>UN         ($7.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.78)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.41)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.17)</t>
+  </si>
+  <si>
+    <t>UN         ($5.41)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.39)</t>
+  </si>
+  <si>
+    <t>UN         ($2.17)</t>
+  </si>
+  <si>
+    <t>Buy        ($9.15)</t>
+  </si>
+  <si>
+    <t>Aug_01</t>
+  </si>
+  <si>
+    <t>UN         ($1.02)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.42)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.91)</t>
+  </si>
+  <si>
+    <t>UN         ($4.21)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.94)</t>
+  </si>
+  <si>
+    <t>UN         ($7.07)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.84)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.71)</t>
+  </si>
+  <si>
+    <t>UN         ($0.18)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.48)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.21)</t>
+  </si>
+  <si>
+    <t>UN         ($6.75)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.44)</t>
+  </si>
+  <si>
+    <t>UN         ($2.20)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($4.61)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.20)</t>
+  </si>
+  <si>
+    <t>Aug_05</t>
+  </si>
+  <si>
+    <t>Hold       ($1.84)</t>
+  </si>
+  <si>
+    <t>UN         ($1.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.16)</t>
+  </si>
+  <si>
+    <t>UN         ($4.37)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.75)</t>
+  </si>
+  <si>
+    <t>UN         ($7.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.98)</t>
+  </si>
+  <si>
+    <t>UN         ($6.31)</t>
+  </si>
+  <si>
+    <t>UN         ($2.24)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.86)</t>
+  </si>
+  <si>
+    <t>Buy        ($9.75)</t>
+  </si>
+  <si>
+    <t>Aug_12</t>
+  </si>
+  <si>
+    <t>UN         ($1.13)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.17)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.77)</t>
+  </si>
+  <si>
+    <t>UN         ($7.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.81)</t>
+  </si>
+  <si>
+    <t>UN         ($0.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.14)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.98)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.43)</t>
+  </si>
+  <si>
+    <t>UN         ($5.38)</t>
+  </si>
+  <si>
+    <t>UN         ($2.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.75)</t>
+  </si>
+  <si>
+    <t>Aug_14</t>
+  </si>
+  <si>
+    <t>UN         ($0.99)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.09)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.80)</t>
+  </si>
+  <si>
+    <t>UN         ($4.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.53)</t>
+  </si>
+  <si>
+    <t>UN         ($7.30)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.79)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.79)</t>
+  </si>
+  <si>
+    <t>UN         ($0.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.47)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.05)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.36)</t>
+  </si>
+  <si>
+    <t>UN         ($5.37)</t>
+  </si>
+  <si>
+    <t>UN         ($3.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.40)</t>
+  </si>
+  <si>
+    <t>Aug_18</t>
+  </si>
+  <si>
+    <t>Sell       ($1.47)</t>
+  </si>
+  <si>
+    <t>UN         ($0.91)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.19)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.78)</t>
+  </si>
+  <si>
+    <t>UN         ($3.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.45)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.83)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.89)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.32)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.95)</t>
+  </si>
+  <si>
+    <t>UN         ($5.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.78)</t>
+  </si>
+  <si>
+    <t>UN         ($2.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.41)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.45)</t>
+  </si>
+  <si>
+    <t>Aug_21</t>
+  </si>
+  <si>
+    <t>Sell       ($1.44)</t>
+  </si>
+  <si>
+    <t>UN         ($0.86)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.46)</t>
+  </si>
+  <si>
+    <t>UN         ($6.01)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.92)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.80)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.44)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.56)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.31)</t>
+  </si>
+  <si>
+    <t>UN         ($5.91)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.75)</t>
+  </si>
+  <si>
+    <t>UN         ($3.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.52)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.20)</t>
+  </si>
+  <si>
+    <t>Aug_26</t>
+  </si>
+  <si>
+    <t>Sell       ($2.23)</t>
+  </si>
+  <si>
+    <t>UN         ($4.04)</t>
+  </si>
+  <si>
+    <t>UN         ($6.03)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.99)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.88)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.68)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.90)</t>
+  </si>
+  <si>
+    <t>UN         ($5.68)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.83)</t>
+  </si>
+  <si>
+    <t>UN         ($2.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.85)</t>
+  </si>
+  <si>
+    <t>Sep_02</t>
+  </si>
+  <si>
+    <t>Sell       ($1.38)</t>
+  </si>
+  <si>
+    <t>UN         ($0.84)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.02)</t>
+  </si>
+  <si>
+    <t>UN         ($6.21)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.95)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.67)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.88)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.20)</t>
+  </si>
+  <si>
+    <t>UN         ($5.74)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.25)</t>
+  </si>
+  <si>
+    <t>Sep_11</t>
+  </si>
+  <si>
+    <t>UN         ($0.64)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.47)</t>
+  </si>
+  <si>
+    <t>UN         ($5.93)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.97)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.58)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.77)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.52)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.44)</t>
+  </si>
+  <si>
+    <t>UN         ($5.04)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.84)</t>
+  </si>
+  <si>
+    <t>UN         ($2.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.90)</t>
+  </si>
+  <si>
+    <t>Sep_24</t>
+  </si>
+  <si>
+    <t>Sell       ($1.24)</t>
+  </si>
+  <si>
+    <t>UN         ($0.65)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.67)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.20)</t>
+  </si>
+  <si>
+    <t>UN         ($3.98)</t>
+  </si>
+  <si>
+    <t>UN         ($5.45)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.70)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.56)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.83)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.44)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.49)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.85)</t>
+  </si>
+  <si>
+    <t>UN         ($5.18)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.96)</t>
+  </si>
+  <si>
+    <t>UN         ($2.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.50)</t>
+  </si>
+  <si>
+    <t>Oct_01</t>
+  </si>
+  <si>
+    <t>Sell       ($1.21)</t>
+  </si>
+  <si>
+    <t>UN         ($4.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.79)</t>
+  </si>
+  <si>
+    <t>UN         ($5.35)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.26)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.70)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.29)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.86)</t>
+  </si>
+  <si>
+    <t>UN         ($5.61)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.71)</t>
+  </si>
+  <si>
+    <t>UN         ($2.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.34)</t>
+  </si>
+  <si>
+    <t>Oct_06</t>
+  </si>
+  <si>
+    <t>Hold       ($1.15)</t>
+  </si>
+  <si>
+    <t>UN         ($0.57)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.02)</t>
+  </si>
+  <si>
+    <t>UN         ($4.64)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.13)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.68)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.81)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.11)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.07)</t>
+  </si>
+  <si>
+    <t>UN         ($5.86)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.63)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.53)</t>
+  </si>
+  <si>
+    <t>Oct_22</t>
+  </si>
+  <si>
+    <t>Sell       ($1.04)</t>
+  </si>
+  <si>
+    <t>UN         ($0.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.18)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.35)</t>
+  </si>
+  <si>
+    <t>UN         ($4.09)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($1.90)</t>
+  </si>
+  <si>
+    <t>UN         ($6.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.49)</t>
+  </si>
+  <si>
+    <t>UN         ($0.25)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.34)</t>
+  </si>
+  <si>
+    <t>UN         ($5.96)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.48)</t>
+  </si>
+  <si>
+    <t>UN         ($1.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.24)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.28)</t>
+  </si>
+  <si>
+    <t>Nov_04</t>
+  </si>
+  <si>
+    <t>Buy        ($1.19)</t>
+  </si>
+  <si>
+    <t>UN         ($0.44)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.34)</t>
+  </si>
+  <si>
+    <t>UN         ($3.47)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.72)</t>
+  </si>
+  <si>
+    <t>UN         ($5.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.95)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.92)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.56)</t>
+  </si>
+  <si>
+    <t>UN         ($2.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.36)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.68)</t>
+  </si>
+  <si>
+    <t>Nov_11</t>
+  </si>
+  <si>
+    <t>Buy        ($1.29)</t>
+  </si>
+  <si>
+    <t>UN         ($0.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.23)</t>
+  </si>
+  <si>
+    <t>UN         ($3.88)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.56)</t>
+  </si>
+  <si>
+    <t>UN         ($6.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.87)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.63)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.02)</t>
+  </si>
+  <si>
+    <t>UN         ($7.99)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.34)</t>
+  </si>
+  <si>
+    <t>UN         ($2.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.96)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.43)</t>
+  </si>
+  <si>
+    <t>Nov_19</t>
+  </si>
+  <si>
+    <t>Buy        ($1.18)</t>
+  </si>
+  <si>
+    <t>UN         ($0.43)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.14)</t>
+  </si>
+  <si>
+    <t>UN         ($3.82)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.44)</t>
+  </si>
+  <si>
+    <t>UN         ($6.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.38)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.32)</t>
+  </si>
+  <si>
+    <t>Sell       ($6.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.81)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.73)</t>
+  </si>
+  <si>
+    <t>UN         ($5.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.27)</t>
+  </si>
+  <si>
+    <t>UN         ($1.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.09)</t>
+  </si>
+  <si>
+    <t>Nov_24</t>
+  </si>
+  <si>
+    <t>Buy        ($1.10)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.09)</t>
+  </si>
+  <si>
+    <t>UN         ($3.64)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.25)</t>
+  </si>
+  <si>
+    <t>UN         ($6.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.41)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.21)</t>
+  </si>
+  <si>
+    <t>UN         ($0.17)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.15)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.59)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.57)</t>
+  </si>
+  <si>
+    <t>UN         ($5.39)</t>
+  </si>
+  <si>
+    <t>UN         ($1.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.97)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.04)</t>
+  </si>
+  <si>
+    <t>Dec_02</t>
+  </si>
+  <si>
+    <t>Hold       ($1.11)</t>
+  </si>
+  <si>
+    <t>UN         ($0.45)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.09)</t>
+  </si>
+  <si>
+    <t>UN         ($3.74)</t>
+  </si>
+  <si>
+    <t>Buy        ($0.86)</t>
+  </si>
+  <si>
+    <t>UN         ($7.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.29)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.65)</t>
+  </si>
+  <si>
+    <t>Sell       ($6.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.92)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.57)</t>
+  </si>
+  <si>
+    <t>UN         ($1.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.43)</t>
+  </si>
+  <si>
+    <t>Dec_09</t>
+  </si>
+  <si>
+    <t>Hold       ($1.01)</t>
+  </si>
+  <si>
+    <t>UN         ($0.36)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.05)</t>
+  </si>
+  <si>
+    <t>UN         ($3.75)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($0.75)</t>
+  </si>
+  <si>
+    <t>UN         ($8.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.15)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.63)</t>
+  </si>
+  <si>
+    <t>Sell       ($5.18)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.72)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.20)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.05)</t>
+  </si>
+  <si>
+    <t>UN         ($1.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.10)</t>
+  </si>
+  <si>
+    <t>Dec_16</t>
+  </si>
+  <si>
+    <t>UN         ($0.31)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.96)</t>
+  </si>
+  <si>
+    <t>Buy        ($0.84)</t>
+  </si>
+  <si>
+    <t>UN         ($7.12)</t>
+  </si>
+  <si>
+    <t>UN         ($0.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.01)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.61)</t>
+  </si>
+  <si>
+    <t>Sell       ($4.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.33)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.53)</t>
+  </si>
+  <si>
+    <t>UN         ($4.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.20)</t>
+  </si>
+  <si>
+    <t>UN         ($1.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.57)</t>
+  </si>
+  <si>
+    <t>Dec_30</t>
+  </si>
+  <si>
+    <t>Hold       ($0.69)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.12)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($0.76)</t>
+  </si>
+  <si>
+    <t>UN         ($6.10)</t>
+  </si>
+  <si>
+    <t>UN         ($0.11)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.52)</t>
+  </si>
+  <si>
+    <t>UN         ($0.09)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.58)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.56)</t>
+  </si>
+  <si>
+    <t>UN         ($4.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.03)</t>
+  </si>
+  <si>
+    <t>UN         ($1.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.92)</t>
+  </si>
+  <si>
+    <t>Jan_07</t>
+  </si>
+  <si>
+    <t>Hold       ($0.84)</t>
+  </si>
+  <si>
+    <t>Buy        ($0.94)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.46)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($0.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.03)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.65)</t>
+  </si>
+  <si>
+    <t>UN         ($4.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.28)</t>
+  </si>
+  <si>
+    <t>UN         ($1.31)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.53)</t>
+  </si>
+  <si>
+    <t>Jan_13</t>
+  </si>
+  <si>
+    <t>Hold       ($0.81)</t>
+  </si>
+  <si>
+    <t>UN         ($0.28)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.07)</t>
+  </si>
+  <si>
+    <t>UN         ($2.61)</t>
+  </si>
+  <si>
+    <t>UN         ($6.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.20)</t>
+  </si>
+  <si>
+    <t>Sell       ($3.29)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.78)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($2.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.32)</t>
+  </si>
+  <si>
+    <t>UN         ($1.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.96)</t>
+  </si>
+  <si>
+    <t>Jan_21</t>
+  </si>
+  <si>
+    <t>Hold       ($0.97)</t>
+  </si>
+  <si>
+    <t>UN         ($0.27)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($1.40)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.16)</t>
+  </si>
+  <si>
+    <t>UN         ($6.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.28)</t>
+  </si>
+  <si>
+    <t>Sell       ($3.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.83)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.05)</t>
+  </si>
+  <si>
+    <t>UN         ($5.22)</t>
+  </si>
+  <si>
+    <t>UN         ($1.21)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.65)</t>
+  </si>
+  <si>
+    <t>Jan_27</t>
+  </si>
+  <si>
+    <t>Hold       ($0.95)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($1.42)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.54)</t>
+  </si>
+  <si>
+    <t>UN         ($2.58)</t>
+  </si>
+  <si>
+    <t>UN         ($0.41)</t>
+  </si>
+  <si>
+    <t>Sell       ($3.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.00)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.19)</t>
+  </si>
+  <si>
+    <t>UN         ($4.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.35)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.92)</t>
+  </si>
+  <si>
+    <t>Jan_31</t>
+  </si>
+  <si>
+    <t>UN         ($2.35)</t>
+  </si>
+  <si>
+    <t>UN         ($6.00)</t>
+  </si>
+  <si>
+    <t>UN         ($0.32)</t>
+  </si>
+  <si>
+    <t>Sell       ($3.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.85)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.85)</t>
+  </si>
+  <si>
+    <t>UN         ($4.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.54)</t>
+  </si>
+  <si>
+    <t>Feb_03</t>
+  </si>
+  <si>
+    <t>Hold       ($29.83)</t>
+  </si>
+  <si>
+    <t>UN         ($29.83)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($29.83)</t>
+  </si>
+  <si>
+    <t>Buy        ($29.83)</t>
+  </si>
+  <si>
+    <t>Sell       ($29.83)</t>
+  </si>
+  <si>
+    <t>Feb_07</t>
+  </si>
+  <si>
+    <t>Hold       ($1.37)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($1.44)</t>
+  </si>
+  <si>
+    <t>UN         ($1.11)</t>
+  </si>
+  <si>
+    <t>UN         ($6.02)</t>
+  </si>
+  <si>
+    <t>UN         ($0.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.97)</t>
+  </si>
+  <si>
+    <t>Buy        ($2.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.23)</t>
+  </si>
+  <si>
+    <t>Feb_10</t>
+  </si>
+  <si>
+    <t>Hold       ($1.42)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.42)</t>
+  </si>
+  <si>
+    <t>UN         ($1.06)</t>
+  </si>
+  <si>
+    <t>UN         ($6.44)</t>
+  </si>
+  <si>
+    <t>UN         ($0.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.86)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.27)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.28)</t>
+  </si>
+  <si>
+    <t>Feb_13</t>
+  </si>
+  <si>
+    <t>Hold       ($1.58)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.39)</t>
+  </si>
+  <si>
+    <t>UN         ($2.40)</t>
+  </si>
+  <si>
+    <t>UN         ($1.09)</t>
+  </si>
+  <si>
+    <t>Sell       ($3.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.20)</t>
+  </si>
+  <si>
+    <t>UN         ($1.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.52)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.78)</t>
+  </si>
+  <si>
+    <t>Feb_17</t>
+  </si>
+  <si>
+    <t>Hold       ($1.49)</t>
+  </si>
+  <si>
+    <t>UN         ($2.18)</t>
+  </si>
+  <si>
+    <t>UN         ($1.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.96)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.89)</t>
+  </si>
+  <si>
+    <t>UN         ($4.47)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.30)</t>
+  </si>
+  <si>
+    <t>UN         ($1.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.08)</t>
+  </si>
+  <si>
+    <t>Feb_24</t>
+  </si>
+  <si>
+    <t>Buy        ($0.74)</t>
+  </si>
+  <si>
+    <t>UN         ($0.23)</t>
+  </si>
+  <si>
+    <t>UN         ($6.11)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.60)</t>
+  </si>
+  <si>
+    <t>UN         ($4.03)</t>
+  </si>
+  <si>
+    <t>UN         ($1.18)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.84)</t>
+  </si>
+  <si>
+    <t>Feb_28</t>
+  </si>
+  <si>
+    <t>Hold       ($1.07)</t>
+  </si>
+  <si>
+    <t>UN         ($5.13)</t>
+  </si>
+  <si>
+    <t>UN         ($6.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.71)</t>
+  </si>
+  <si>
+    <t>UN         ($3.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.18)</t>
+  </si>
+  <si>
+    <t>Mar_03</t>
+  </si>
+  <si>
+    <t>Buy        ($0.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.08)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.48)</t>
+  </si>
+  <si>
+    <t>UN         ($4.89)</t>
+  </si>
+  <si>
+    <t>UN         ($6.05)</t>
+  </si>
+  <si>
+    <t>UN         ($0.07)</t>
+  </si>
+  <si>
+    <t>UN         ($2.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.94)</t>
+  </si>
+  <si>
+    <t>Mar_06</t>
+  </si>
+  <si>
+    <t>Buy        ($0.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.99)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.31)</t>
+  </si>
+  <si>
+    <t>UN         ($0.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.01)</t>
+  </si>
+  <si>
+    <t>UN         ($3.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.57)</t>
+  </si>
+  <si>
+    <t>UN         ($3.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.78)</t>
+  </si>
+  <si>
+    <t>Mar_10</t>
+  </si>
+  <si>
+    <t>Buy        ($0.69)</t>
+  </si>
+  <si>
+    <t>Buy        ($1.27)</t>
+  </si>
+  <si>
+    <t>UN         ($4.76)</t>
+  </si>
+  <si>
+    <t>UN         ($5.80)</t>
+  </si>
+  <si>
+    <t>UN         ($0.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.83)</t>
+  </si>
+  <si>
+    <t>UN         ($5.63)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.52)</t>
+  </si>
+  <si>
+    <t>UN         ($3.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.19)</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +3199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="171">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1435,6 +3409,646 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
       </patternFill>
     </fill>
   </fills>
@@ -1450,7 +4064,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="1096">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -1579,10 +4193,952 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="160" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="162" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="166" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1591,15 +5147,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1938,100 +5498,272 @@
     <col min="14" max="14" customWidth="true" width="15.1640625" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="15.1640625" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="63" max="63" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="68" max="68" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="69" max="69" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="70" max="70" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="AS1" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="AT1" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="AU1" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="AV1" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="AW1" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="AX1" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="AY1" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="BA1" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="BB1" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="BC1" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="BD1" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="BE1" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="BF1" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="BG1" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="BH1" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="BI1" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="BK1" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="BL1" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="BM1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="BN1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="BO1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="BP1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="BQ1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="BR1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="BS1" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2039,85 +5771,214 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="1074" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C2" s="1052" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D2" s="1030" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E2" s="1008" t="s">
+        <v>996</v>
+      </c>
+      <c r="F2" s="986" t="s">
+        <v>996</v>
+      </c>
+      <c r="G2" s="964" t="s">
+        <v>606</v>
+      </c>
+      <c r="H2" s="942" t="s">
+        <v>606</v>
+      </c>
+      <c r="I2" s="920" t="s">
+        <v>936</v>
+      </c>
+      <c r="J2" s="898" t="s">
+        <v>745</v>
+      </c>
+      <c r="K2" s="876" t="s">
+        <v>944</v>
+      </c>
+      <c r="L2" s="854" t="s">
+        <v>606</v>
+      </c>
+      <c r="M2" s="832" t="s">
+        <v>919</v>
+      </c>
+      <c r="N2" s="810" t="s">
+        <v>904</v>
+      </c>
+      <c r="O2" s="788" t="s">
+        <v>890</v>
+      </c>
+      <c r="P2" s="766" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q2" s="744" t="s">
+        <v>859</v>
+      </c>
+      <c r="R2" s="722" t="s">
+        <v>588</v>
+      </c>
+      <c r="S2" s="700" t="s">
+        <v>824</v>
+      </c>
+      <c r="T2" s="678" t="s">
+        <v>808</v>
+      </c>
+      <c r="U2" s="656" t="s">
+        <v>791</v>
+      </c>
+      <c r="V2" s="634" t="s">
+        <v>773</v>
+      </c>
+      <c r="W2" s="612" t="s">
+        <v>754</v>
+      </c>
+      <c r="X2" s="590" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y2" s="568" t="s">
+        <v>720</v>
+      </c>
+      <c r="Z2" s="546" t="s">
+        <v>703</v>
+      </c>
+      <c r="AA2" s="524" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB2" s="502" t="s">
+        <v>665</v>
+      </c>
+      <c r="AC2" s="480" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD2" s="458" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE2" s="436" t="s">
+        <v>580</v>
+      </c>
+      <c r="AF2" s="414" t="s">
+        <v>599</v>
+      </c>
+      <c r="AG2" s="392" t="s">
+        <v>580</v>
+      </c>
+      <c r="AH2" s="370" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI2" s="348" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ2" s="326" t="s">
+        <v>528</v>
+      </c>
+      <c r="AK2" s="304" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL2" s="282" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM2" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN2" s="238" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO2" s="216" t="s">
+        <v>447</v>
+      </c>
+      <c r="AP2" s="194" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ2" s="172" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR2" s="150" t="s">
+        <v>395</v>
+      </c>
+      <c r="AS2" s="128" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="AT2" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="AU2" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="AV2" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="AW2" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="AX2" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="AY2" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="AZ2" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="BA2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="BB2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="BC2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="BD2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="BE2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="BF2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="BG2" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="BH2" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="BI2" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="BJ2" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="BK2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="BL2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="BM2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="BN2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="BO2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="BP2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="BQ2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="BR2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="BS2" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2125,85 +5986,214 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="1075" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1053" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="1031" t="s">
+        <v>517</v>
+      </c>
+      <c r="E3" s="1009" t="s">
+        <v>798</v>
+      </c>
+      <c r="F3" s="987" t="s">
+        <v>997</v>
+      </c>
+      <c r="G3" s="965" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="943" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="921" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="899" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="877" t="s">
+        <v>945</v>
+      </c>
+      <c r="L3" s="855" t="s">
+        <v>256</v>
+      </c>
+      <c r="M3" s="833" t="s">
+        <v>905</v>
+      </c>
+      <c r="N3" s="811" t="s">
+        <v>905</v>
+      </c>
+      <c r="O3" s="789" t="s">
+        <v>891</v>
+      </c>
+      <c r="P3" s="767" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q3" s="745" t="s">
+        <v>275</v>
+      </c>
+      <c r="R3" s="723" t="s">
+        <v>842</v>
+      </c>
+      <c r="S3" s="701" t="s">
+        <v>825</v>
+      </c>
+      <c r="T3" s="679" t="s">
+        <v>809</v>
+      </c>
+      <c r="U3" s="657" t="s">
+        <v>739</v>
+      </c>
+      <c r="V3" s="635" t="s">
+        <v>774</v>
+      </c>
+      <c r="W3" s="613" t="s">
+        <v>755</v>
+      </c>
+      <c r="X3" s="591" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y3" s="569" t="s">
+        <v>721</v>
+      </c>
+      <c r="Z3" s="547" t="s">
+        <v>704</v>
+      </c>
+      <c r="AA3" s="525" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB3" s="503" t="s">
+        <v>666</v>
+      </c>
+      <c r="AC3" s="481" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD3" s="459" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE3" s="437" t="s">
+        <v>600</v>
+      </c>
+      <c r="AF3" s="415" t="s">
+        <v>600</v>
+      </c>
+      <c r="AG3" s="393" t="s">
+        <v>581</v>
+      </c>
+      <c r="AH3" s="371" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI3" s="349" t="s">
+        <v>545</v>
+      </c>
+      <c r="AJ3" s="327" t="s">
+        <v>529</v>
+      </c>
+      <c r="AK3" s="305" t="s">
+        <v>509</v>
+      </c>
+      <c r="AL3" s="283" t="s">
+        <v>494</v>
+      </c>
+      <c r="AM3" s="261" t="s">
+        <v>478</v>
+      </c>
+      <c r="AN3" s="239" t="s">
+        <v>463</v>
+      </c>
+      <c r="AO3" s="217" t="s">
+        <v>448</v>
+      </c>
+      <c r="AP3" s="195" t="s">
+        <v>396</v>
+      </c>
+      <c r="AQ3" s="173" t="s">
+        <v>412</v>
+      </c>
+      <c r="AR3" s="151" t="s">
+        <v>396</v>
+      </c>
+      <c r="AS3" s="129" t="s">
         <v>363</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="AT3" s="107" t="s">
         <v>363</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="AU3" s="85" t="s">
         <v>342</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="AV3" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="AW3" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="AX3" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="AY3" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="AZ3" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="BA3" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="BB3" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="BC3" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="BD3" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="BE3" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="BF3" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="BG3" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="BH3" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="BI3" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="BJ3" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="BK3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="BL3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="BM3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="BN3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="BO3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="BP3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="BQ3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="0" t="s">
+      <c r="BR3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="0" t="s">
+      <c r="BS3" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2211,85 +6201,214 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="1076" t="s">
+        <v>844</v>
+      </c>
+      <c r="C4" s="1054" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D4" s="1032" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E4" s="1010" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F4" s="988" t="s">
+        <v>601</v>
+      </c>
+      <c r="G4" s="966" t="s">
+        <v>983</v>
+      </c>
+      <c r="H4" s="944" t="s">
+        <v>972</v>
+      </c>
+      <c r="I4" s="922" t="s">
+        <v>961</v>
+      </c>
+      <c r="J4" s="900" t="s">
+        <v>950</v>
+      </c>
+      <c r="K4" s="878" t="s">
+        <v>946</v>
+      </c>
+      <c r="L4" s="856" t="s">
+        <v>906</v>
+      </c>
+      <c r="M4" s="834" t="s">
+        <v>920</v>
+      </c>
+      <c r="N4" s="812" t="s">
+        <v>906</v>
+      </c>
+      <c r="O4" s="790" t="s">
+        <v>892</v>
+      </c>
+      <c r="P4" s="768" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q4" s="746" t="s">
+        <v>860</v>
+      </c>
+      <c r="R4" s="724" t="s">
+        <v>843</v>
+      </c>
+      <c r="S4" s="702" t="s">
+        <v>826</v>
+      </c>
+      <c r="T4" s="680" t="s">
+        <v>810</v>
+      </c>
+      <c r="U4" s="658" t="s">
+        <v>792</v>
+      </c>
+      <c r="V4" s="636" t="s">
+        <v>775</v>
+      </c>
+      <c r="W4" s="614" t="s">
+        <v>756</v>
+      </c>
+      <c r="X4" s="592" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y4" s="570" t="s">
+        <v>722</v>
+      </c>
+      <c r="Z4" s="548" t="s">
+        <v>565</v>
+      </c>
+      <c r="AA4" s="526" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="504" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC4" s="482" t="s">
+        <v>515</v>
+      </c>
+      <c r="AD4" s="460" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE4" s="438" t="s">
+        <v>617</v>
+      </c>
+      <c r="AF4" s="416" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG4" s="394" t="s">
+        <v>582</v>
+      </c>
+      <c r="AH4" s="372" t="s">
+        <v>562</v>
+      </c>
+      <c r="AI4" s="350" t="s">
+        <v>546</v>
+      </c>
+      <c r="AJ4" s="328" t="s">
+        <v>530</v>
+      </c>
+      <c r="AK4" s="306" t="s">
+        <v>510</v>
+      </c>
+      <c r="AL4" s="284" t="s">
+        <v>495</v>
+      </c>
+      <c r="AM4" s="262" t="s">
+        <v>479</v>
+      </c>
+      <c r="AN4" s="240" t="s">
+        <v>464</v>
+      </c>
+      <c r="AO4" s="218" t="s">
+        <v>449</v>
+      </c>
+      <c r="AP4" s="196" t="s">
+        <v>397</v>
+      </c>
+      <c r="AQ4" s="174" t="s">
+        <v>413</v>
+      </c>
+      <c r="AR4" s="152" t="s">
+        <v>397</v>
+      </c>
+      <c r="AS4" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="AT4" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="AU4" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="AV4" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="AW4" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="AX4" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="AY4" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="AZ4" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="BA4" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="BB4" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="BC4" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="BD4" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="BE4" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="BF4" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="BG4" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="BH4" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="BI4" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="BJ4" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="BK4" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="BL4" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="BM4" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="BN4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="BO4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="BP4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="0" t="s">
+      <c r="BQ4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="0" t="s">
+      <c r="BR4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="0" t="s">
+      <c r="BS4" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2297,85 +6416,214 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="1077" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C5" s="1055" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D5" s="1033" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E5" s="1011" t="s">
+        <v>555</v>
+      </c>
+      <c r="F5" s="989" t="s">
+        <v>601</v>
+      </c>
+      <c r="G5" s="967" t="s">
+        <v>555</v>
+      </c>
+      <c r="H5" s="945" t="s">
+        <v>973</v>
+      </c>
+      <c r="I5" s="923" t="s">
+        <v>962</v>
+      </c>
+      <c r="J5" s="901" t="s">
+        <v>951</v>
+      </c>
+      <c r="K5" s="879" t="s">
+        <v>947</v>
+      </c>
+      <c r="L5" s="857" t="s">
+        <v>555</v>
+      </c>
+      <c r="M5" s="835" t="s">
+        <v>921</v>
+      </c>
+      <c r="N5" s="813" t="s">
+        <v>671</v>
+      </c>
+      <c r="O5" s="791" t="s">
+        <v>395</v>
+      </c>
+      <c r="P5" s="769" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q5" s="747" t="s">
+        <v>499</v>
+      </c>
+      <c r="R5" s="725" t="s">
+        <v>844</v>
+      </c>
+      <c r="S5" s="703" t="s">
+        <v>827</v>
+      </c>
+      <c r="T5" s="681" t="s">
+        <v>811</v>
+      </c>
+      <c r="U5" s="659" t="s">
+        <v>535</v>
+      </c>
+      <c r="V5" s="637" t="s">
+        <v>703</v>
+      </c>
+      <c r="W5" s="615" t="s">
+        <v>423</v>
+      </c>
+      <c r="X5" s="593" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y5" s="571" t="s">
+        <v>723</v>
+      </c>
+      <c r="Z5" s="549" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA5" s="527" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB5" s="505" t="s">
+        <v>668</v>
+      </c>
+      <c r="AC5" s="483" t="s">
+        <v>649</v>
+      </c>
+      <c r="AD5" s="461" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE5" s="439" t="s">
+        <v>511</v>
+      </c>
+      <c r="AF5" s="417" t="s">
+        <v>513</v>
+      </c>
+      <c r="AG5" s="395" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH5" s="373" t="s">
+        <v>563</v>
+      </c>
+      <c r="AI5" s="351" t="s">
+        <v>547</v>
+      </c>
+      <c r="AJ5" s="329" t="s">
+        <v>496</v>
+      </c>
+      <c r="AK5" s="307" t="s">
+        <v>511</v>
+      </c>
+      <c r="AL5" s="285" t="s">
+        <v>496</v>
+      </c>
+      <c r="AM5" s="263" t="s">
+        <v>480</v>
+      </c>
+      <c r="AN5" s="241" t="s">
+        <v>465</v>
+      </c>
+      <c r="AO5" s="219" t="s">
+        <v>450</v>
+      </c>
+      <c r="AP5" s="197" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ5" s="175" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR5" s="153" t="s">
+        <v>398</v>
+      </c>
+      <c r="AS5" s="131" t="s">
         <v>380</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="AT5" s="109" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="AU5" s="87" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="AV5" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="AW5" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="AX5" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="AY5" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="AZ5" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="BA5" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="BB5" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="BC5" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="BD5" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="BE5" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="BF5" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="BG5" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="BH5" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="BI5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="BJ5" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="BK5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="BL5" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="BM5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="BN5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="BO5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="BP5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="BQ5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="0" t="s">
+      <c r="BR5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="0" t="s">
+      <c r="BS5" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2383,85 +6631,214 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="1078" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C6" s="1056" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="1034" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E6" s="1012" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F6" s="990" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" s="968" t="s">
+        <v>984</v>
+      </c>
+      <c r="H6" s="946" t="s">
+        <v>974</v>
+      </c>
+      <c r="I6" s="924" t="s">
+        <v>506</v>
+      </c>
+      <c r="J6" s="902" t="s">
+        <v>524</v>
+      </c>
+      <c r="K6" s="880" t="s">
+        <v>945</v>
+      </c>
+      <c r="L6" s="858" t="s">
+        <v>932</v>
+      </c>
+      <c r="M6" s="836" t="s">
+        <v>922</v>
+      </c>
+      <c r="N6" s="814" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="792" t="s">
+        <v>893</v>
+      </c>
+      <c r="P6" s="770" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q6" s="748" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="726" t="s">
+        <v>337</v>
+      </c>
+      <c r="S6" s="704" t="s">
+        <v>828</v>
+      </c>
+      <c r="T6" s="682" t="s">
+        <v>812</v>
+      </c>
+      <c r="U6" s="660" t="s">
+        <v>793</v>
+      </c>
+      <c r="V6" s="638" t="s">
+        <v>776</v>
+      </c>
+      <c r="W6" s="616" t="s">
+        <v>757</v>
+      </c>
+      <c r="X6" s="594" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y6" s="572" t="s">
+        <v>724</v>
+      </c>
+      <c r="Z6" s="550" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA6" s="528" t="s">
+        <v>687</v>
+      </c>
+      <c r="AB6" s="506" t="s">
+        <v>669</v>
+      </c>
+      <c r="AC6" s="484" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD6" s="462" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE6" s="440" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF6" s="418" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG6" s="396" t="s">
+        <v>584</v>
+      </c>
+      <c r="AH6" s="374" t="s">
+        <v>564</v>
+      </c>
+      <c r="AI6" s="352" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ6" s="330" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK6" s="308" t="s">
+        <v>512</v>
+      </c>
+      <c r="AL6" s="286" t="s">
+        <v>415</v>
+      </c>
+      <c r="AM6" s="264" t="s">
+        <v>481</v>
+      </c>
+      <c r="AN6" s="242" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO6" s="220" t="s">
+        <v>451</v>
+      </c>
+      <c r="AP6" s="198" t="s">
+        <v>431</v>
+      </c>
+      <c r="AQ6" s="176" t="s">
+        <v>415</v>
+      </c>
+      <c r="AR6" s="154" t="s">
+        <v>399</v>
+      </c>
+      <c r="AS6" s="132" t="s">
         <v>381</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="AT6" s="110" t="s">
         <v>364</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="AU6" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="AV6" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="AW6" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="AX6" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="AY6" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="AZ6" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="BA6" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="BB6" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="BC6" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="BD6" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="BE6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="BF6" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="BG6" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="BH6" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="BI6" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="BJ6" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="BK6" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="BL6" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="BM6" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="BN6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="X6" s="0" t="s">
+      <c r="BO6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="BP6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="0" t="s">
+      <c r="BQ6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA6" s="0" t="s">
+      <c r="BR6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="0" t="s">
+      <c r="BS6" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2469,85 +6846,214 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="1079" t="s">
+        <v>963</v>
+      </c>
+      <c r="C7" s="1057" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" s="1035" t="s">
+        <v>963</v>
+      </c>
+      <c r="E7" s="1013" t="s">
+        <v>870</v>
+      </c>
+      <c r="F7" s="991" t="s">
+        <v>975</v>
+      </c>
+      <c r="G7" s="969" t="s">
+        <v>985</v>
+      </c>
+      <c r="H7" s="947" t="s">
+        <v>975</v>
+      </c>
+      <c r="I7" s="925" t="s">
+        <v>963</v>
+      </c>
+      <c r="J7" s="903" t="s">
+        <v>952</v>
+      </c>
+      <c r="K7" s="881" t="s">
+        <v>947</v>
+      </c>
+      <c r="L7" s="859" t="s">
+        <v>810</v>
+      </c>
+      <c r="M7" s="837" t="s">
+        <v>787</v>
+      </c>
+      <c r="N7" s="815" t="s">
+        <v>907</v>
+      </c>
+      <c r="O7" s="793" t="s">
+        <v>877</v>
+      </c>
+      <c r="P7" s="771" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q7" s="749" t="s">
+        <v>861</v>
+      </c>
+      <c r="R7" s="727" t="s">
+        <v>845</v>
+      </c>
+      <c r="S7" s="705" t="s">
+        <v>829</v>
+      </c>
+      <c r="T7" s="683" t="s">
+        <v>813</v>
+      </c>
+      <c r="U7" s="661" t="s">
+        <v>794</v>
+      </c>
+      <c r="V7" s="639" t="s">
+        <v>777</v>
+      </c>
+      <c r="W7" s="617" t="s">
+        <v>758</v>
+      </c>
+      <c r="X7" s="595" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y7" s="573" t="s">
+        <v>725</v>
+      </c>
+      <c r="Z7" s="551" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA7" s="529" t="s">
+        <v>688</v>
+      </c>
+      <c r="AB7" s="507" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC7" s="485" t="s">
+        <v>650</v>
+      </c>
+      <c r="AD7" s="463" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE7" s="441" t="s">
+        <v>601</v>
+      </c>
+      <c r="AF7" s="419" t="s">
+        <v>601</v>
+      </c>
+      <c r="AG7" s="397" t="s">
+        <v>585</v>
+      </c>
+      <c r="AH7" s="375" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI7" s="353" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ7" s="331" t="s">
+        <v>532</v>
+      </c>
+      <c r="AK7" s="309" t="s">
+        <v>513</v>
+      </c>
+      <c r="AL7" s="287" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM7" s="265" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN7" s="243" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO7" s="221" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP7" s="199" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ7" s="177" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR7" s="155" t="s">
+        <v>400</v>
+      </c>
+      <c r="AS7" s="133" t="s">
         <v>382</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="AT7" s="111" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="AU7" s="89" t="s">
         <v>346</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="AV7" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="AW7" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="AX7" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="AY7" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="AZ7" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="BA7" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="BB7" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="BC7" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="BD7" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="BE7" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="BF7" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="BG7" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="BH7" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="BI7" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="BJ7" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="BK7" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="BL7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="BM7" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="W7" s="0" t="s">
+      <c r="BN7" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="X7" s="0" t="s">
+      <c r="BO7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="BP7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="Z7" s="0" t="s">
+      <c r="BQ7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AA7" s="0" t="s">
+      <c r="BR7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="AB7" s="0" t="s">
+      <c r="BS7" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2555,85 +7061,214 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="1080" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C8" s="1058" t="s">
+        <v>732</v>
+      </c>
+      <c r="D8" s="1036" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E8" s="1014" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F8" s="992" t="s">
+        <v>998</v>
+      </c>
+      <c r="G8" s="970" t="s">
+        <v>602</v>
+      </c>
+      <c r="H8" s="948" t="s">
+        <v>933</v>
+      </c>
+      <c r="I8" s="926" t="s">
+        <v>964</v>
+      </c>
+      <c r="J8" s="904" t="s">
+        <v>953</v>
+      </c>
+      <c r="K8" s="882" t="s">
+        <v>945</v>
+      </c>
+      <c r="L8" s="860" t="s">
+        <v>933</v>
+      </c>
+      <c r="M8" s="838" t="s">
+        <v>715</v>
+      </c>
+      <c r="N8" s="816" t="s">
+        <v>908</v>
+      </c>
+      <c r="O8" s="794" t="s">
+        <v>894</v>
+      </c>
+      <c r="P8" s="772" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q8" s="750" t="s">
+        <v>862</v>
+      </c>
+      <c r="R8" s="728" t="s">
+        <v>846</v>
+      </c>
+      <c r="S8" s="706" t="s">
+        <v>830</v>
+      </c>
+      <c r="T8" s="684" t="s">
+        <v>814</v>
+      </c>
+      <c r="U8" s="662" t="s">
+        <v>795</v>
+      </c>
+      <c r="V8" s="640" t="s">
+        <v>778</v>
+      </c>
+      <c r="W8" s="618" t="s">
+        <v>759</v>
+      </c>
+      <c r="X8" s="596" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y8" s="574" t="s">
+        <v>726</v>
+      </c>
+      <c r="Z8" s="552" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA8" s="530" t="s">
+        <v>689</v>
+      </c>
+      <c r="AB8" s="508" t="s">
+        <v>670</v>
+      </c>
+      <c r="AC8" s="486" t="s">
+        <v>651</v>
+      </c>
+      <c r="AD8" s="464" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE8" s="442" t="s">
+        <v>619</v>
+      </c>
+      <c r="AF8" s="420" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG8" s="398" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="376" t="s">
+        <v>566</v>
+      </c>
+      <c r="AI8" s="354" t="s">
+        <v>548</v>
+      </c>
+      <c r="AJ8" s="332" t="s">
+        <v>533</v>
+      </c>
+      <c r="AK8" s="310" t="s">
+        <v>514</v>
+      </c>
+      <c r="AL8" s="288" t="s">
+        <v>497</v>
+      </c>
+      <c r="AM8" s="266" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN8" s="244" t="s">
+        <v>466</v>
+      </c>
+      <c r="AO8" s="222" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP8" s="200" t="s">
+        <v>433</v>
+      </c>
+      <c r="AQ8" s="178" t="s">
+        <v>416</v>
+      </c>
+      <c r="AR8" s="156" t="s">
+        <v>401</v>
+      </c>
+      <c r="AS8" s="134" t="s">
         <v>383</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="AT8" s="112" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="AU8" s="90" t="s">
         <v>347</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="AV8" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="AW8" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="AX8" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="AY8" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="AZ8" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="BA8" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="BB8" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="BC8" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="BD8" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="BE8" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="BF8" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="BG8" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="BH8" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="BI8" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="BJ8" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="T8" s="0" t="s">
+      <c r="BK8" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="BL8" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="BM8" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="W8" s="0" t="s">
+      <c r="BN8" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="X8" s="0" t="s">
+      <c r="BO8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Y8" s="0" t="s">
+      <c r="BP8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Z8" s="0" t="s">
+      <c r="BQ8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="0" t="s">
+      <c r="BR8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AB8" s="0" t="s">
+      <c r="BS8" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2641,85 +7276,214 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="1081" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C9" s="1059" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D9" s="1037" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E9" s="1015" t="s">
+        <v>847</v>
+      </c>
+      <c r="F9" s="993" t="s">
+        <v>954</v>
+      </c>
+      <c r="G9" s="971" t="s">
+        <v>842</v>
+      </c>
+      <c r="H9" s="949" t="s">
+        <v>954</v>
+      </c>
+      <c r="I9" s="927" t="s">
+        <v>965</v>
+      </c>
+      <c r="J9" s="905" t="s">
+        <v>954</v>
+      </c>
+      <c r="K9" s="883" t="s">
+        <v>945</v>
+      </c>
+      <c r="L9" s="861" t="s">
+        <v>934</v>
+      </c>
+      <c r="M9" s="839" t="s">
+        <v>923</v>
+      </c>
+      <c r="N9" s="817" t="s">
+        <v>909</v>
+      </c>
+      <c r="O9" s="795" t="s">
+        <v>895</v>
+      </c>
+      <c r="P9" s="773" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q9" s="751" t="s">
+        <v>863</v>
+      </c>
+      <c r="R9" s="729" t="s">
+        <v>847</v>
+      </c>
+      <c r="S9" s="707" t="s">
+        <v>825</v>
+      </c>
+      <c r="T9" s="685" t="s">
+        <v>815</v>
+      </c>
+      <c r="U9" s="663" t="s">
+        <v>796</v>
+      </c>
+      <c r="V9" s="641" t="s">
+        <v>779</v>
+      </c>
+      <c r="W9" s="619" t="s">
+        <v>760</v>
+      </c>
+      <c r="X9" s="597" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y9" s="575" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z9" s="553" t="s">
+        <v>707</v>
+      </c>
+      <c r="AA9" s="531" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB9" s="509" t="s">
+        <v>671</v>
+      </c>
+      <c r="AC9" s="487" t="s">
+        <v>587</v>
+      </c>
+      <c r="AD9" s="465" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE9" s="443" t="s">
+        <v>620</v>
+      </c>
+      <c r="AF9" s="421" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG9" s="399" t="s">
+        <v>586</v>
+      </c>
+      <c r="AH9" s="377" t="s">
+        <v>547</v>
+      </c>
+      <c r="AI9" s="355" t="s">
+        <v>532</v>
+      </c>
+      <c r="AJ9" s="333" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK9" s="311" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL9" s="289" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM9" s="267" t="s">
+        <v>482</v>
+      </c>
+      <c r="AN9" s="245" t="s">
+        <v>453</v>
+      </c>
+      <c r="AO9" s="223" t="s">
+        <v>453</v>
+      </c>
+      <c r="AP9" s="201" t="s">
+        <v>434</v>
+      </c>
+      <c r="AQ9" s="179" t="s">
+        <v>417</v>
+      </c>
+      <c r="AR9" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS9" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="AT9" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="AU9" s="91" t="s">
         <v>348</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="AV9" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="AW9" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="AX9" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="AY9" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="AZ9" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="BA9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="BB9" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="BC9" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="BD9" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="BE9" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="BF9" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="BG9" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="BH9" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="BI9" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="BJ9" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="BK9" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="BL9" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="BM9" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="BN9" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="X9" s="0" t="s">
+      <c r="BO9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Y9" s="0" t="s">
+      <c r="BP9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="Z9" s="0" t="s">
+      <c r="BQ9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AA9" s="0" t="s">
+      <c r="BR9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AB9" s="0" t="s">
+      <c r="BS9" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2727,85 +7491,214 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="1082" t="s">
+        <v>639</v>
+      </c>
+      <c r="C10" s="1060" t="s">
+        <v>989</v>
+      </c>
+      <c r="D10" s="1038" t="s">
+        <v>840</v>
+      </c>
+      <c r="E10" s="1016" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="994" t="s">
+        <v>999</v>
+      </c>
+      <c r="G10" s="972" t="s">
+        <v>976</v>
+      </c>
+      <c r="H10" s="950" t="s">
+        <v>976</v>
+      </c>
+      <c r="I10" s="928" t="s">
+        <v>966</v>
+      </c>
+      <c r="J10" s="906" t="s">
+        <v>955</v>
+      </c>
+      <c r="K10" s="884" t="s">
+        <v>948</v>
+      </c>
+      <c r="L10" s="862" t="s">
+        <v>935</v>
+      </c>
+      <c r="M10" s="840" t="s">
+        <v>924</v>
+      </c>
+      <c r="N10" s="818" t="s">
+        <v>910</v>
+      </c>
+      <c r="O10" s="796" t="s">
+        <v>896</v>
+      </c>
+      <c r="P10" s="774" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" s="752" t="s">
+        <v>181</v>
+      </c>
+      <c r="R10" s="730" t="s">
+        <v>270</v>
+      </c>
+      <c r="S10" s="708" t="s">
+        <v>831</v>
+      </c>
+      <c r="T10" s="686" t="s">
+        <v>391</v>
+      </c>
+      <c r="U10" s="664" t="s">
+        <v>797</v>
+      </c>
+      <c r="V10" s="642" t="s">
+        <v>780</v>
+      </c>
+      <c r="W10" s="620" t="s">
+        <v>761</v>
+      </c>
+      <c r="X10" s="598" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y10" s="576" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z10" s="554" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA10" s="532" t="s">
+        <v>690</v>
+      </c>
+      <c r="AB10" s="510" t="s">
+        <v>672</v>
+      </c>
+      <c r="AC10" s="488" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD10" s="466" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE10" s="444" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF10" s="422" t="s">
+        <v>604</v>
+      </c>
+      <c r="AG10" s="400" t="s">
+        <v>587</v>
+      </c>
+      <c r="AH10" s="378" t="s">
+        <v>567</v>
+      </c>
+      <c r="AI10" s="356" t="s">
+        <v>549</v>
+      </c>
+      <c r="AJ10" s="334" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK10" s="312" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL10" s="290" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM10" s="268" t="s">
+        <v>483</v>
+      </c>
+      <c r="AN10" s="246" t="s">
+        <v>467</v>
+      </c>
+      <c r="AO10" s="224" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP10" s="202" t="s">
+        <v>418</v>
+      </c>
+      <c r="AQ10" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="AR10" s="158" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS10" s="136" t="s">
         <v>384</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="AT10" s="114" t="s">
         <v>367</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="AU10" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="AV10" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="AW10" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="AX10" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="AY10" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="AZ10" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="BA10" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="BB10" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="BC10" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="BD10" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="BE10" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="BF10" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="BG10" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="BH10" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="BI10" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="BJ10" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="BK10" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="BL10" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="BM10" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="W10" s="0" t="s">
+      <c r="BN10" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="X10" s="0" t="s">
+      <c r="BO10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="0" t="s">
+      <c r="BP10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="0" t="s">
+      <c r="BQ10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AA10" s="0" t="s">
+      <c r="BR10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AB10" s="0" t="s">
+      <c r="BS10" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2813,85 +7706,214 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="1083" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C11" s="1061" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D11" s="1039" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="1017" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="995" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="973" t="s">
+        <v>986</v>
+      </c>
+      <c r="H11" s="951" t="s">
+        <v>727</v>
+      </c>
+      <c r="I11" s="929" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="907" t="s">
+        <v>848</v>
+      </c>
+      <c r="K11" s="885" t="s">
+        <v>944</v>
+      </c>
+      <c r="L11" s="863" t="s">
+        <v>679</v>
+      </c>
+      <c r="M11" s="841" t="s">
+        <v>298</v>
+      </c>
+      <c r="N11" s="819" t="s">
+        <v>298</v>
+      </c>
+      <c r="O11" s="797" t="s">
+        <v>848</v>
+      </c>
+      <c r="P11" s="775" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q11" s="753" t="s">
+        <v>864</v>
+      </c>
+      <c r="R11" s="731" t="s">
+        <v>848</v>
+      </c>
+      <c r="S11" s="709" t="s">
+        <v>832</v>
+      </c>
+      <c r="T11" s="687" t="s">
+        <v>816</v>
+      </c>
+      <c r="U11" s="665" t="s">
+        <v>234</v>
+      </c>
+      <c r="V11" s="643" t="s">
+        <v>781</v>
+      </c>
+      <c r="W11" s="621" t="s">
+        <v>762</v>
+      </c>
+      <c r="X11" s="599" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y11" s="577" t="s">
+        <v>727</v>
+      </c>
+      <c r="Z11" s="555" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA11" s="533" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB11" s="511" t="s">
+        <v>673</v>
+      </c>
+      <c r="AC11" s="489" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD11" s="467" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE11" s="445" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF11" s="423" t="s">
+        <v>605</v>
+      </c>
+      <c r="AG11" s="401" t="s">
+        <v>516</v>
+      </c>
+      <c r="AH11" s="379" t="s">
+        <v>568</v>
+      </c>
+      <c r="AI11" s="357" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ11" s="335" t="s">
+        <v>534</v>
+      </c>
+      <c r="AK11" s="313" t="s">
+        <v>516</v>
+      </c>
+      <c r="AL11" s="291" t="s">
+        <v>498</v>
+      </c>
+      <c r="AM11" s="269" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN11" s="247" t="s">
+        <v>468</v>
+      </c>
+      <c r="AO11" s="225" t="s">
+        <v>454</v>
+      </c>
+      <c r="AP11" s="203" t="s">
+        <v>435</v>
+      </c>
+      <c r="AQ11" s="181" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR11" s="159" t="s">
+        <v>402</v>
+      </c>
+      <c r="AS11" s="137" t="s">
         <v>385</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="AT11" s="115" t="s">
         <v>368</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="AU11" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="AV11" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="AW11" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="AX11" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="AY11" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="AZ11" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="BA11" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="BB11" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="BC11" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="BD11" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="BE11" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="BF11" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="BG11" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="BH11" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="BI11" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="BJ11" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="BK11" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="BL11" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="BM11" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="BN11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="BO11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y11" s="0" t="s">
+      <c r="BP11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Z11" s="0" t="s">
+      <c r="BQ11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="AA11" s="0" t="s">
+      <c r="BR11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AB11" s="0" t="s">
+      <c r="BS11" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2899,85 +7921,214 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="1084" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="1062" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D12" s="1040" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E12" s="1018" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="996" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="974" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="952" t="s">
+        <v>541</v>
+      </c>
+      <c r="I12" s="930" t="s">
+        <v>750</v>
+      </c>
+      <c r="J12" s="908" t="s">
+        <v>595</v>
+      </c>
+      <c r="K12" s="886" t="s">
+        <v>945</v>
+      </c>
+      <c r="L12" s="864" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="842" t="s">
+        <v>863</v>
+      </c>
+      <c r="N12" s="820" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" s="798" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" s="776" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q12" s="754" t="s">
+        <v>865</v>
+      </c>
+      <c r="R12" s="732" t="s">
+        <v>119</v>
+      </c>
+      <c r="S12" s="710" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" s="688" t="s">
+        <v>550</v>
+      </c>
+      <c r="U12" s="666" t="s">
+        <v>798</v>
+      </c>
+      <c r="V12" s="644" t="s">
+        <v>517</v>
+      </c>
+      <c r="W12" s="622" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" s="600" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y12" s="578" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z12" s="556" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA12" s="534" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="AB12" s="512" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC12" s="490" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD12" s="468" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="AE12" s="446" t="s">
+        <v>517</v>
+      </c>
+      <c r="AF12" s="424" t="s">
+        <v>517</v>
+      </c>
+      <c r="AG12" s="402" t="s">
+        <v>517</v>
+      </c>
+      <c r="AH12" s="380" t="s">
+        <v>569</v>
+      </c>
+      <c r="AI12" s="358" t="s">
+        <v>550</v>
+      </c>
+      <c r="AJ12" s="336" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK12" s="314" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL12" s="292" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM12" s="270" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN12" s="248" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO12" s="226" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP12" s="204" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ12" s="182" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR12" s="160" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS12" s="138" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT12" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU12" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="AV12" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="AW12" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="AX12" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="AY12" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="AZ12" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="BA12" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="BB12" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="BC12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="BD12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="BE12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="BF12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="BG12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="BH12" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="BI12" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="BJ12" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="BK12" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="BL12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="V12" s="0" t="s">
+      <c r="BM12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="W12" s="0" t="s">
+      <c r="BN12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="X12" s="0" t="s">
+      <c r="BO12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Y12" s="0" t="s">
+      <c r="BP12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Z12" s="0" t="s">
+      <c r="BQ12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA12" s="0" t="s">
+      <c r="BR12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AB12" s="0" t="s">
+      <c r="BS12" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2985,85 +8136,214 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="1085" t="s">
+        <v>811</v>
+      </c>
+      <c r="C13" s="1063" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D13" s="1041" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E13" s="1019" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F13" s="997" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G13" s="975" t="s">
+        <v>987</v>
+      </c>
+      <c r="H13" s="953" t="s">
+        <v>956</v>
+      </c>
+      <c r="I13" s="931" t="s">
+        <v>967</v>
+      </c>
+      <c r="J13" s="909" t="s">
+        <v>956</v>
+      </c>
+      <c r="K13" s="887" t="s">
+        <v>944</v>
+      </c>
+      <c r="L13" s="865" t="s">
+        <v>936</v>
+      </c>
+      <c r="M13" s="843" t="s">
+        <v>745</v>
+      </c>
+      <c r="N13" s="821" t="s">
+        <v>890</v>
+      </c>
+      <c r="O13" s="799" t="s">
+        <v>897</v>
+      </c>
+      <c r="P13" s="777" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q13" s="755" t="s">
+        <v>866</v>
+      </c>
+      <c r="R13" s="733" t="s">
+        <v>849</v>
+      </c>
+      <c r="S13" s="711" t="s">
+        <v>833</v>
+      </c>
+      <c r="T13" s="689" t="s">
+        <v>817</v>
+      </c>
+      <c r="U13" s="667" t="s">
+        <v>799</v>
+      </c>
+      <c r="V13" s="645" t="s">
+        <v>691</v>
+      </c>
+      <c r="W13" s="623" t="s">
+        <v>763</v>
+      </c>
+      <c r="X13" s="601" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y13" s="579" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z13" s="557" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA13" s="535" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB13" s="513" t="s">
+        <v>674</v>
+      </c>
+      <c r="AC13" s="491" t="s">
+        <v>654</v>
+      </c>
+      <c r="AD13" s="469" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE13" s="447" t="s">
+        <v>622</v>
+      </c>
+      <c r="AF13" s="425" t="s">
+        <v>606</v>
+      </c>
+      <c r="AG13" s="403" t="s">
+        <v>588</v>
+      </c>
+      <c r="AH13" s="381" t="s">
+        <v>570</v>
+      </c>
+      <c r="AI13" s="359" t="s">
+        <v>551</v>
+      </c>
+      <c r="AJ13" s="337" t="s">
+        <v>535</v>
+      </c>
+      <c r="AK13" s="315" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL13" s="293" t="s">
+        <v>499</v>
+      </c>
+      <c r="AM13" s="271" t="s">
+        <v>484</v>
+      </c>
+      <c r="AN13" s="249" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO13" s="227" t="s">
+        <v>455</v>
+      </c>
+      <c r="AP13" s="205" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ13" s="183" t="s">
+        <v>419</v>
+      </c>
+      <c r="AR13" s="161" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS13" s="139" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="AT13" s="117" t="s">
         <v>369</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="AU13" s="95" t="s">
         <v>351</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="AV13" s="73" t="s">
         <v>332</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="AW13" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="AX13" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="AY13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="AZ13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="BA13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="BB13" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="BC13" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="BD13" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="BE13" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="BF13" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="P13" s="0" t="s">
+      <c r="BG13" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="BH13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="BI13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="BJ13" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="T13" s="0" t="s">
+      <c r="BK13" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="U13" s="0" t="s">
+      <c r="BL13" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="V13" s="0" t="s">
+      <c r="BM13" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="W13" s="0" t="s">
+      <c r="BN13" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="X13" s="0" t="s">
+      <c r="BO13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Y13" s="0" t="s">
+      <c r="BP13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="Z13" s="0" t="s">
+      <c r="BQ13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AA13" s="0" t="s">
+      <c r="BR13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AB13" s="0" t="s">
+      <c r="BS13" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3071,85 +8351,214 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="1086" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C14" s="1064" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D14" s="1042" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="1020" t="s">
+        <v>694</v>
+      </c>
+      <c r="F14" s="998" t="s">
+        <v>372</v>
+      </c>
+      <c r="G14" s="976" t="s">
+        <v>988</v>
+      </c>
+      <c r="H14" s="954" t="s">
+        <v>977</v>
+      </c>
+      <c r="I14" s="932" t="s">
+        <v>596</v>
+      </c>
+      <c r="J14" s="910" t="s">
+        <v>957</v>
+      </c>
+      <c r="K14" s="888" t="s">
+        <v>944</v>
+      </c>
+      <c r="L14" s="866" t="s">
+        <v>937</v>
+      </c>
+      <c r="M14" s="844" t="s">
+        <v>784</v>
+      </c>
+      <c r="N14" s="822" t="s">
+        <v>911</v>
+      </c>
+      <c r="O14" s="800" t="s">
+        <v>676</v>
+      </c>
+      <c r="P14" s="778" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q14" s="756" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" s="734" t="s">
+        <v>850</v>
+      </c>
+      <c r="S14" s="712" t="s">
+        <v>834</v>
+      </c>
+      <c r="T14" s="690" t="s">
+        <v>818</v>
+      </c>
+      <c r="U14" s="668" t="s">
+        <v>145</v>
+      </c>
+      <c r="V14" s="646" t="s">
+        <v>782</v>
+      </c>
+      <c r="W14" s="624" t="s">
+        <v>764</v>
+      </c>
+      <c r="X14" s="602" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y14" s="580" t="s">
+        <v>730</v>
+      </c>
+      <c r="Z14" s="558" t="s">
+        <v>710</v>
+      </c>
+      <c r="AA14" s="536" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB14" s="514" t="s">
+        <v>675</v>
+      </c>
+      <c r="AC14" s="492" t="s">
+        <v>655</v>
+      </c>
+      <c r="AD14" s="470" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE14" s="448" t="s">
+        <v>623</v>
+      </c>
+      <c r="AF14" s="426" t="s">
+        <v>607</v>
+      </c>
+      <c r="AG14" s="404" t="s">
+        <v>589</v>
+      </c>
+      <c r="AH14" s="382" t="s">
+        <v>571</v>
+      </c>
+      <c r="AI14" s="360" t="s">
+        <v>552</v>
+      </c>
+      <c r="AJ14" s="338" t="s">
+        <v>536</v>
+      </c>
+      <c r="AK14" s="316" t="s">
+        <v>518</v>
+      </c>
+      <c r="AL14" s="294" t="s">
+        <v>500</v>
+      </c>
+      <c r="AM14" s="272" t="s">
+        <v>485</v>
+      </c>
+      <c r="AN14" s="250" t="s">
+        <v>469</v>
+      </c>
+      <c r="AO14" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="AP14" s="206" t="s">
+        <v>436</v>
+      </c>
+      <c r="AQ14" s="184" t="s">
+        <v>420</v>
+      </c>
+      <c r="AR14" s="162" t="s">
+        <v>240</v>
+      </c>
+      <c r="AS14" s="140" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="AT14" s="118" t="s">
         <v>370</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="AU14" s="96" t="s">
         <v>352</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="AV14" s="74" t="s">
         <v>333</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="AW14" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="AX14" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="AY14" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="AZ14" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="BA14" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="BB14" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="BC14" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="BD14" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="BE14" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="BF14" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="P14" s="0" t="s">
+      <c r="BG14" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="BH14" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="BI14" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="BJ14" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="BK14" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="BL14" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="V14" s="0" t="s">
+      <c r="BM14" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="W14" s="0" t="s">
+      <c r="BN14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="X14" s="0" t="s">
+      <c r="BO14" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="Y14" s="0" t="s">
+      <c r="BP14" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Z14" s="0" t="s">
+      <c r="BQ14" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="AA14" s="0" t="s">
+      <c r="BR14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AB14" s="0" t="s">
+      <c r="BS14" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3157,85 +8566,214 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="1087" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C15" s="1065" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1043" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E15" s="1021" t="s">
+        <v>770</v>
+      </c>
+      <c r="F15" s="999" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G15" s="977" t="s">
+        <v>358</v>
+      </c>
+      <c r="H15" s="955" t="s">
+        <v>727</v>
+      </c>
+      <c r="I15" s="933" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="911" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="889" t="s">
+        <v>944</v>
+      </c>
+      <c r="L15" s="867" t="s">
+        <v>938</v>
+      </c>
+      <c r="M15" s="845" t="s">
+        <v>303</v>
+      </c>
+      <c r="N15" s="823" t="s">
+        <v>805</v>
+      </c>
+      <c r="O15" s="801" t="s">
+        <v>835</v>
+      </c>
+      <c r="P15" s="779" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q15" s="757" t="s">
+        <v>832</v>
+      </c>
+      <c r="R15" s="735" t="s">
+        <v>851</v>
+      </c>
+      <c r="S15" s="713" t="s">
+        <v>835</v>
+      </c>
+      <c r="T15" s="691" t="s">
+        <v>819</v>
+      </c>
+      <c r="U15" s="669" t="s">
+        <v>800</v>
+      </c>
+      <c r="V15" s="647" t="s">
+        <v>783</v>
+      </c>
+      <c r="W15" s="625" t="s">
+        <v>765</v>
+      </c>
+      <c r="X15" s="603" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y15" s="581" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z15" s="559" t="s">
+        <v>711</v>
+      </c>
+      <c r="AA15" s="537" t="s">
+        <v>693</v>
+      </c>
+      <c r="AB15" s="515" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC15" s="493" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD15" s="471" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE15" s="449" t="s">
+        <v>624</v>
+      </c>
+      <c r="AF15" s="427" t="s">
+        <v>608</v>
+      </c>
+      <c r="AG15" s="405" t="s">
+        <v>590</v>
+      </c>
+      <c r="AH15" s="383" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI15" s="361" t="s">
+        <v>456</v>
+      </c>
+      <c r="AJ15" s="339" t="s">
+        <v>537</v>
+      </c>
+      <c r="AK15" s="317" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL15" s="295" t="s">
+        <v>501</v>
+      </c>
+      <c r="AM15" s="273" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN15" s="251" t="s">
+        <v>470</v>
+      </c>
+      <c r="AO15" s="229" t="s">
+        <v>456</v>
+      </c>
+      <c r="AP15" s="207" t="s">
+        <v>437</v>
+      </c>
+      <c r="AQ15" s="185" t="s">
+        <v>421</v>
+      </c>
+      <c r="AR15" s="163" t="s">
+        <v>403</v>
+      </c>
+      <c r="AS15" s="141" t="s">
         <v>387</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="AT15" s="119" t="s">
         <v>371</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="AU15" s="97" t="s">
         <v>353</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="AV15" s="75" t="s">
         <v>334</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="AW15" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="AX15" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="AY15" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="AZ15" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="BA15" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="BB15" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="BC15" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="BD15" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="BE15" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="BF15" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="P15" s="0" t="s">
+      <c r="BG15" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="BH15" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="R15" s="0" t="s">
+      <c r="BI15" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="S15" s="0" t="s">
+      <c r="BJ15" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="T15" s="0" t="s">
+      <c r="BK15" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="U15" s="0" t="s">
+      <c r="BL15" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="V15" s="0" t="s">
+      <c r="BM15" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="W15" s="0" t="s">
+      <c r="BN15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="X15" s="0" t="s">
+      <c r="BO15" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="Y15" s="0" t="s">
+      <c r="BP15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Z15" s="0" t="s">
+      <c r="BQ15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="AA15" s="0" t="s">
+      <c r="BR15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AB15" s="0" t="s">
+      <c r="BS15" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3243,85 +8781,214 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="1088" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="1066" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="1044" t="s">
+        <v>454</v>
+      </c>
+      <c r="E16" s="1022" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="1000" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="978" t="s">
+        <v>989</v>
+      </c>
+      <c r="H16" s="956" t="s">
+        <v>851</v>
+      </c>
+      <c r="I16" s="934" t="s">
+        <v>362</v>
+      </c>
+      <c r="J16" s="912" t="s">
+        <v>958</v>
+      </c>
+      <c r="K16" s="890" t="s">
+        <v>944</v>
+      </c>
+      <c r="L16" s="868" t="s">
+        <v>939</v>
+      </c>
+      <c r="M16" s="846" t="s">
+        <v>379</v>
+      </c>
+      <c r="N16" s="824" t="s">
+        <v>402</v>
+      </c>
+      <c r="O16" s="802" t="s">
+        <v>898</v>
+      </c>
+      <c r="P16" s="780" t="s">
+        <v>835</v>
+      </c>
+      <c r="Q16" s="758" t="s">
+        <v>781</v>
+      </c>
+      <c r="R16" s="736" t="s">
+        <v>534</v>
+      </c>
+      <c r="S16" s="714" t="s">
+        <v>836</v>
+      </c>
+      <c r="T16" s="692" t="s">
+        <v>820</v>
+      </c>
+      <c r="U16" s="670" t="s">
+        <v>801</v>
+      </c>
+      <c r="V16" s="648" t="s">
+        <v>784</v>
+      </c>
+      <c r="W16" s="626" t="s">
+        <v>700</v>
+      </c>
+      <c r="X16" s="604" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y16" s="582" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z16" s="560" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA16" s="538" t="s">
+        <v>694</v>
+      </c>
+      <c r="AB16" s="516" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC16" s="494" t="s">
+        <v>656</v>
+      </c>
+      <c r="AD16" s="472" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE16" s="450" t="s">
+        <v>625</v>
+      </c>
+      <c r="AF16" s="428" t="s">
+        <v>609</v>
+      </c>
+      <c r="AG16" s="406" t="s">
+        <v>591</v>
+      </c>
+      <c r="AH16" s="384" t="s">
+        <v>572</v>
+      </c>
+      <c r="AI16" s="362" t="s">
+        <v>553</v>
+      </c>
+      <c r="AJ16" s="340" t="s">
+        <v>538</v>
+      </c>
+      <c r="AK16" s="318" t="s">
+        <v>519</v>
+      </c>
+      <c r="AL16" s="296" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM16" s="274" t="s">
+        <v>486</v>
+      </c>
+      <c r="AN16" s="252" t="s">
+        <v>471</v>
+      </c>
+      <c r="AO16" s="230" t="s">
+        <v>457</v>
+      </c>
+      <c r="AP16" s="208" t="s">
+        <v>438</v>
+      </c>
+      <c r="AQ16" s="186" t="s">
+        <v>422</v>
+      </c>
+      <c r="AR16" s="164" t="s">
+        <v>404</v>
+      </c>
+      <c r="AS16" s="142" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="AT16" s="120" t="s">
         <v>372</v>
       </c>
-      <c r="D16" s="98" t="s">
+      <c r="AU16" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="AV16" s="76" t="s">
         <v>335</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="AW16" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="AX16" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="AY16" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="AZ16" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="BA16" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="BB16" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="BC16" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="BD16" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="BE16" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="BF16" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="P16" s="0" t="s">
+      <c r="BG16" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="Q16" s="0" t="s">
+      <c r="BH16" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="R16" s="0" t="s">
+      <c r="BI16" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="S16" s="0" t="s">
+      <c r="BJ16" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="T16" s="0" t="s">
+      <c r="BK16" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="U16" s="0" t="s">
+      <c r="BL16" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="V16" s="0" t="s">
+      <c r="BM16" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="W16" s="0" t="s">
+      <c r="BN16" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="X16" s="0" t="s">
+      <c r="BO16" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="Y16" s="0" t="s">
+      <c r="BP16" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Z16" s="0" t="s">
+      <c r="BQ16" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AA16" s="0" t="s">
+      <c r="BR16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AB16" s="0" t="s">
+      <c r="BS16" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3329,85 +8996,214 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="1089" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C17" s="1067" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D17" s="1045" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17" s="1023" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F17" s="1001" t="s">
+        <v>912</v>
+      </c>
+      <c r="G17" s="979" t="s">
+        <v>990</v>
+      </c>
+      <c r="H17" s="957" t="s">
+        <v>940</v>
+      </c>
+      <c r="I17" s="935" t="s">
+        <v>539</v>
+      </c>
+      <c r="J17" s="913" t="s">
+        <v>404</v>
+      </c>
+      <c r="K17" s="891" t="s">
+        <v>944</v>
+      </c>
+      <c r="L17" s="869" t="s">
+        <v>940</v>
+      </c>
+      <c r="M17" s="847" t="s">
+        <v>925</v>
+      </c>
+      <c r="N17" s="825" t="s">
+        <v>912</v>
+      </c>
+      <c r="O17" s="803" t="s">
+        <v>899</v>
+      </c>
+      <c r="P17" s="781" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q17" s="759" t="s">
+        <v>867</v>
+      </c>
+      <c r="R17" s="737" t="s">
+        <v>852</v>
+      </c>
+      <c r="S17" s="715" t="s">
+        <v>837</v>
+      </c>
+      <c r="T17" s="693" t="s">
+        <v>542</v>
+      </c>
+      <c r="U17" s="671" t="s">
+        <v>802</v>
+      </c>
+      <c r="V17" s="649" t="s">
+        <v>785</v>
+      </c>
+      <c r="W17" s="627" t="s">
+        <v>766</v>
+      </c>
+      <c r="X17" s="605" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y17" s="583" t="s">
         <v>389</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="Z17" s="561" t="s">
+        <v>713</v>
+      </c>
+      <c r="AA17" s="539" t="s">
+        <v>695</v>
+      </c>
+      <c r="AB17" s="517" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC17" s="495" t="s">
+        <v>657</v>
+      </c>
+      <c r="AD17" s="473" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE17" s="451" t="s">
+        <v>626</v>
+      </c>
+      <c r="AF17" s="429" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG17" s="407" t="s">
+        <v>592</v>
+      </c>
+      <c r="AH17" s="385" t="s">
+        <v>573</v>
+      </c>
+      <c r="AI17" s="363" t="s">
+        <v>554</v>
+      </c>
+      <c r="AJ17" s="341" t="s">
+        <v>539</v>
+      </c>
+      <c r="AK17" s="319" t="s">
+        <v>520</v>
+      </c>
+      <c r="AL17" s="297" t="s">
+        <v>439</v>
+      </c>
+      <c r="AM17" s="275" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN17" s="253" t="s">
+        <v>353</v>
+      </c>
+      <c r="AO17" s="231" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP17" s="209" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ17" s="187" t="s">
         <v>373</v>
       </c>
-      <c r="D17" s="99" t="s">
+      <c r="AR17" s="165" t="s">
+        <v>405</v>
+      </c>
+      <c r="AS17" s="143" t="s">
+        <v>389</v>
+      </c>
+      <c r="AT17" s="121" t="s">
+        <v>373</v>
+      </c>
+      <c r="AU17" s="99" t="s">
         <v>355</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="AV17" s="77" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="AW17" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="AX17" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="AY17" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="AZ17" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="BA17" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="BB17" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="BC17" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="BD17" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="BE17" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="BF17" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="0" t="s">
+      <c r="BG17" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="Q17" s="0" t="s">
+      <c r="BH17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="BI17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="BJ17" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="BK17" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="BL17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="BM17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="BN17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="X17" s="0" t="s">
+      <c r="BO17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y17" s="0" t="s">
+      <c r="BP17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="Z17" s="0" t="s">
+      <c r="BQ17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" s="0" t="s">
+      <c r="BR17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="0" t="s">
+      <c r="BS17" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3415,85 +9211,214 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="1090" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C18" s="1068" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D18" s="1046" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E18" s="1024" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F18" s="1002" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18" s="980" t="s">
+        <v>467</v>
+      </c>
+      <c r="H18" s="958" t="s">
+        <v>978</v>
+      </c>
+      <c r="I18" s="936" t="s">
+        <v>968</v>
+      </c>
+      <c r="J18" s="914" t="s">
+        <v>959</v>
+      </c>
+      <c r="K18" s="892" t="s">
+        <v>944</v>
+      </c>
+      <c r="L18" s="870" t="s">
+        <v>425</v>
+      </c>
+      <c r="M18" s="848" t="s">
+        <v>926</v>
+      </c>
+      <c r="N18" s="826" t="s">
+        <v>913</v>
+      </c>
+      <c r="O18" s="804" t="s">
+        <v>668</v>
+      </c>
+      <c r="P18" s="782" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q18" s="760" t="s">
+        <v>528</v>
+      </c>
+      <c r="R18" s="738" t="s">
+        <v>391</v>
+      </c>
+      <c r="S18" s="716" t="s">
+        <v>838</v>
+      </c>
+      <c r="T18" s="694" t="s">
+        <v>714</v>
+      </c>
+      <c r="U18" s="672" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="650" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="628" t="s">
+        <v>688</v>
+      </c>
+      <c r="X18" s="606" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y18" s="584" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z18" s="562" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA18" s="540" t="s">
+        <v>696</v>
+      </c>
+      <c r="AB18" s="518" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC18" s="496" t="s">
+        <v>658</v>
+      </c>
+      <c r="AD18" s="474" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE18" s="452" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF18" s="430" t="s">
+        <v>610</v>
+      </c>
+      <c r="AG18" s="408" t="s">
+        <v>499</v>
+      </c>
+      <c r="AH18" s="386" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI18" s="364" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ18" s="342" t="s">
+        <v>503</v>
+      </c>
+      <c r="AK18" s="320" t="s">
+        <v>521</v>
+      </c>
+      <c r="AL18" s="298" t="s">
+        <v>503</v>
+      </c>
+      <c r="AM18" s="276" t="s">
+        <v>487</v>
+      </c>
+      <c r="AN18" s="254" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO18" s="232" t="s">
+        <v>458</v>
+      </c>
+      <c r="AP18" s="210" t="s">
+        <v>440</v>
+      </c>
+      <c r="AQ18" s="188" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR18" s="166" t="s">
         <v>390</v>
       </c>
-      <c r="C18" s="122" t="s">
+      <c r="AS18" s="144" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT18" s="122" t="s">
         <v>374</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="AU18" s="100" t="s">
         <v>356</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="AV18" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="AW18" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="AX18" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="AY18" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="AZ18" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="BA18" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="BB18" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="BC18" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="BD18" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="BE18" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="BF18" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="P18" s="0" t="s">
+      <c r="BG18" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="Q18" s="0" t="s">
+      <c r="BH18" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="R18" s="0" t="s">
+      <c r="BI18" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="S18" s="0" t="s">
+      <c r="BJ18" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="BK18" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="BL18" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="V18" s="0" t="s">
+      <c r="BM18" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="0" t="s">
+      <c r="BN18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="0" t="s">
+      <c r="BO18" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="Y18" s="0" t="s">
+      <c r="BP18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="Z18" s="0" t="s">
+      <c r="BQ18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AA18" s="0" t="s">
+      <c r="BR18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AB18" s="0" t="s">
+      <c r="BS18" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3501,85 +9426,214 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="1091" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C19" s="1069" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D19" s="1047" t="s">
+        <v>424</v>
+      </c>
+      <c r="E19" s="1025" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F19" s="1003" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G19" s="981" t="s">
+        <v>991</v>
+      </c>
+      <c r="H19" s="959" t="s">
+        <v>451</v>
+      </c>
+      <c r="I19" s="937" t="s">
+        <v>431</v>
+      </c>
+      <c r="J19" s="915" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="893" t="s">
+        <v>945</v>
+      </c>
+      <c r="L19" s="871" t="s">
+        <v>941</v>
+      </c>
+      <c r="M19" s="849" t="s">
+        <v>927</v>
+      </c>
+      <c r="N19" s="827" t="s">
+        <v>914</v>
+      </c>
+      <c r="O19" s="805" t="s">
+        <v>488</v>
+      </c>
+      <c r="P19" s="783" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q19" s="761" t="s">
+        <v>868</v>
+      </c>
+      <c r="R19" s="739" t="s">
+        <v>853</v>
+      </c>
+      <c r="S19" s="717" t="s">
+        <v>218</v>
+      </c>
+      <c r="T19" s="695" t="s">
+        <v>504</v>
+      </c>
+      <c r="U19" s="673" t="s">
+        <v>803</v>
+      </c>
+      <c r="V19" s="651" t="s">
+        <v>786</v>
+      </c>
+      <c r="W19" s="629" t="s">
+        <v>767</v>
+      </c>
+      <c r="X19" s="607" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y19" s="585" t="s">
+        <v>732</v>
+      </c>
+      <c r="Z19" s="563" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA19" s="541" t="s">
+        <v>697</v>
+      </c>
+      <c r="AB19" s="519" t="s">
+        <v>680</v>
+      </c>
+      <c r="AC19" s="497" t="s">
+        <v>659</v>
+      </c>
+      <c r="AD19" s="475" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE19" s="453" t="s">
+        <v>627</v>
+      </c>
+      <c r="AF19" s="431" t="s">
+        <v>611</v>
+      </c>
+      <c r="AG19" s="409" t="s">
+        <v>593</v>
+      </c>
+      <c r="AH19" s="387" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI19" s="365" t="s">
+        <v>556</v>
+      </c>
+      <c r="AJ19" s="343" t="s">
+        <v>540</v>
+      </c>
+      <c r="AK19" s="321" t="s">
+        <v>522</v>
+      </c>
+      <c r="AL19" s="299" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM19" s="277" t="s">
+        <v>488</v>
+      </c>
+      <c r="AN19" s="255" t="s">
+        <v>473</v>
+      </c>
+      <c r="AO19" s="233" t="s">
+        <v>459</v>
+      </c>
+      <c r="AP19" s="211" t="s">
+        <v>441</v>
+      </c>
+      <c r="AQ19" s="189" t="s">
+        <v>424</v>
+      </c>
+      <c r="AR19" s="167" t="s">
+        <v>406</v>
+      </c>
+      <c r="AS19" s="145" t="s">
         <v>320</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="AT19" s="123" t="s">
         <v>375</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="AU19" s="101" t="s">
         <v>357</v>
       </c>
-      <c r="E19" s="79" t="s">
+      <c r="AV19" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="AW19" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="AX19" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="AY19" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="AZ19" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="BA19" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="BB19" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="BC19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="BD19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="BE19" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="BF19" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="0" t="s">
+      <c r="BG19" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="Q19" s="0" t="s">
+      <c r="BH19" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="BI19" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="BJ19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="T19" s="0" t="s">
+      <c r="BK19" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="U19" s="0" t="s">
+      <c r="BL19" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="V19" s="0" t="s">
+      <c r="BM19" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="W19" s="0" t="s">
+      <c r="BN19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="X19" s="0" t="s">
+      <c r="BO19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Y19" s="0" t="s">
+      <c r="BP19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Z19" s="0" t="s">
+      <c r="BQ19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA19" s="0" t="s">
+      <c r="BR19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AB19" s="0" t="s">
+      <c r="BS19" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3587,49 +9641,178 @@
       <c r="A20" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="1092" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1070" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="1048" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E20" s="1026" t="s">
+        <v>864</v>
+      </c>
+      <c r="F20" s="1004" t="s">
+        <v>756</v>
+      </c>
+      <c r="G20" s="982" t="s">
+        <v>992</v>
+      </c>
+      <c r="H20" s="960" t="s">
+        <v>950</v>
+      </c>
+      <c r="I20" s="938" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="916" t="s">
+        <v>928</v>
+      </c>
+      <c r="K20" s="894" t="s">
+        <v>948</v>
+      </c>
+      <c r="L20" s="872" t="s">
+        <v>900</v>
+      </c>
+      <c r="M20" s="850" t="s">
+        <v>928</v>
+      </c>
+      <c r="N20" s="828" t="s">
+        <v>900</v>
+      </c>
+      <c r="O20" s="806" t="s">
+        <v>900</v>
+      </c>
+      <c r="P20" s="784" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q20" s="762" t="s">
+        <v>869</v>
+      </c>
+      <c r="R20" s="740" t="s">
+        <v>854</v>
+      </c>
+      <c r="S20" s="718" t="s">
+        <v>458</v>
+      </c>
+      <c r="T20" s="696" t="s">
+        <v>472</v>
+      </c>
+      <c r="U20" s="674" t="s">
+        <v>610</v>
+      </c>
+      <c r="V20" s="652" t="s">
+        <v>787</v>
+      </c>
+      <c r="W20" s="630" t="s">
+        <v>768</v>
+      </c>
+      <c r="X20" s="608" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y20" s="586" t="s">
+        <v>733</v>
+      </c>
+      <c r="Z20" s="564" t="s">
+        <v>716</v>
+      </c>
+      <c r="AA20" s="542" t="s">
+        <v>698</v>
+      </c>
+      <c r="AB20" s="520" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC20" s="498" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD20" s="476" t="s">
+        <v>645</v>
+      </c>
+      <c r="AE20" s="454" t="s">
+        <v>628</v>
+      </c>
+      <c r="AF20" s="432" t="s">
+        <v>612</v>
+      </c>
+      <c r="AG20" s="410" t="s">
+        <v>594</v>
+      </c>
+      <c r="AH20" s="388" t="s">
+        <v>534</v>
+      </c>
+      <c r="AI20" s="366" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ20" s="344" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK20" s="322" t="s">
+        <v>523</v>
+      </c>
+      <c r="AL20" s="300" t="s">
+        <v>505</v>
+      </c>
+      <c r="AM20" s="278" t="s">
+        <v>489</v>
+      </c>
+      <c r="AN20" s="256" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO20" s="234" t="s">
+        <v>460</v>
+      </c>
+      <c r="AP20" s="212" t="s">
+        <v>442</v>
+      </c>
+      <c r="AQ20" s="190" t="s">
+        <v>425</v>
+      </c>
+      <c r="AR20" s="168" t="s">
+        <v>234</v>
+      </c>
+      <c r="AS20" s="146" t="s">
         <v>391</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="AT20" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="AU20" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="E20" s="80" t="s">
+      <c r="AV20" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="AW20" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="AX20" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="AY20" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="AZ20" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="BA20" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="BB20" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="BC20" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="BD20" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="BE20" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="O20" s="0" t="s">
+      <c r="BF20" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="P20" s="0" t="s">
+      <c r="BG20" s="0" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3637,49 +9820,178 @@
       <c r="A21" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="1093" t="s">
+        <v>975</v>
+      </c>
+      <c r="C21" s="1071" t="s">
+        <v>985</v>
+      </c>
+      <c r="D21" s="1049" t="s">
+        <v>545</v>
+      </c>
+      <c r="E21" s="1027" t="s">
+        <v>545</v>
+      </c>
+      <c r="F21" s="1005" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G21" s="983" t="s">
+        <v>993</v>
+      </c>
+      <c r="H21" s="961" t="s">
+        <v>979</v>
+      </c>
+      <c r="I21" s="939" t="s">
+        <v>855</v>
+      </c>
+      <c r="J21" s="917" t="s">
+        <v>855</v>
+      </c>
+      <c r="K21" s="895" t="s">
+        <v>945</v>
+      </c>
+      <c r="L21" s="873" t="s">
+        <v>478</v>
+      </c>
+      <c r="M21" s="851" t="s">
+        <v>855</v>
+      </c>
+      <c r="N21" s="829" t="s">
+        <v>915</v>
+      </c>
+      <c r="O21" s="807" t="s">
+        <v>901</v>
+      </c>
+      <c r="P21" s="785" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q21" s="763" t="s">
+        <v>870</v>
+      </c>
+      <c r="R21" s="741" t="s">
+        <v>855</v>
+      </c>
+      <c r="S21" s="719" t="s">
+        <v>839</v>
+      </c>
+      <c r="T21" s="697" t="s">
+        <v>821</v>
+      </c>
+      <c r="U21" s="675" t="s">
+        <v>804</v>
+      </c>
+      <c r="V21" s="653" t="s">
+        <v>788</v>
+      </c>
+      <c r="W21" s="631" t="s">
+        <v>769</v>
+      </c>
+      <c r="X21" s="609" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y21" s="587" t="s">
+        <v>734</v>
+      </c>
+      <c r="Z21" s="565" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA21" s="543" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB21" s="521" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC21" s="499" t="s">
+        <v>661</v>
+      </c>
+      <c r="AD21" s="477" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE21" s="455" t="s">
+        <v>629</v>
+      </c>
+      <c r="AF21" s="433" t="s">
+        <v>613</v>
+      </c>
+      <c r="AG21" s="411" t="s">
+        <v>595</v>
+      </c>
+      <c r="AH21" s="389" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI21" s="367" t="s">
+        <v>557</v>
+      </c>
+      <c r="AJ21" s="345" t="s">
+        <v>541</v>
+      </c>
+      <c r="AK21" s="323" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL21" s="301" t="s">
+        <v>506</v>
+      </c>
+      <c r="AM21" s="279" t="s">
+        <v>490</v>
+      </c>
+      <c r="AN21" s="257" t="s">
+        <v>474</v>
+      </c>
+      <c r="AO21" s="235" t="s">
+        <v>461</v>
+      </c>
+      <c r="AP21" s="213" t="s">
+        <v>443</v>
+      </c>
+      <c r="AQ21" s="191" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR21" s="169" t="s">
+        <v>407</v>
+      </c>
+      <c r="AS21" s="147" t="s">
         <v>392</v>
       </c>
-      <c r="C21" s="125" t="s">
+      <c r="AT21" s="125" t="s">
         <v>376</v>
       </c>
-      <c r="D21" s="103" t="s">
+      <c r="AU21" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="AV21" s="81" t="s">
         <v>321</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="AW21" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="AX21" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="AY21" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="AZ21" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="BA21" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="BB21" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="BC21" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="BD21" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="N21" s="0" t="s">
+      <c r="BE21" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="O21" s="0" t="s">
+      <c r="BF21" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="P21" s="0" t="s">
+      <c r="BG21" s="0" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3687,49 +9999,178 @@
       <c r="A22" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="1094" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="1072" t="s">
+        <v>397</v>
+      </c>
+      <c r="D22" s="1050" t="s">
+        <v>935</v>
+      </c>
+      <c r="E22" s="1028" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="1006" t="s">
+        <v>751</v>
+      </c>
+      <c r="G22" s="984" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="962" t="s">
+        <v>980</v>
+      </c>
+      <c r="I22" s="940" t="s">
+        <v>969</v>
+      </c>
+      <c r="J22" s="918" t="s">
+        <v>801</v>
+      </c>
+      <c r="K22" s="896" t="s">
+        <v>947</v>
+      </c>
+      <c r="L22" s="874" t="s">
+        <v>929</v>
+      </c>
+      <c r="M22" s="852" t="s">
+        <v>929</v>
+      </c>
+      <c r="N22" s="830" t="s">
+        <v>916</v>
+      </c>
+      <c r="O22" s="808" t="s">
+        <v>801</v>
+      </c>
+      <c r="P22" s="786" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q22" s="764" t="s">
+        <v>871</v>
+      </c>
+      <c r="R22" s="742" t="s">
+        <v>856</v>
+      </c>
+      <c r="S22" s="720" t="s">
+        <v>840</v>
+      </c>
+      <c r="T22" s="698" t="s">
+        <v>120</v>
+      </c>
+      <c r="U22" s="676" t="s">
+        <v>805</v>
+      </c>
+      <c r="V22" s="654" t="s">
+        <v>90</v>
+      </c>
+      <c r="W22" s="632" t="s">
+        <v>770</v>
+      </c>
+      <c r="X22" s="610" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y22" s="588" t="s">
+        <v>735</v>
+      </c>
+      <c r="Z22" s="566" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA22" s="544" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB22" s="522" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC22" s="500" t="s">
+        <v>662</v>
+      </c>
+      <c r="AD22" s="478" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE22" s="456" t="s">
+        <v>630</v>
+      </c>
+      <c r="AF22" s="434" t="s">
+        <v>614</v>
+      </c>
+      <c r="AG22" s="412" t="s">
+        <v>596</v>
+      </c>
+      <c r="AH22" s="390" t="s">
+        <v>577</v>
+      </c>
+      <c r="AI22" s="368" t="s">
+        <v>558</v>
+      </c>
+      <c r="AJ22" s="346" t="s">
+        <v>542</v>
+      </c>
+      <c r="AK22" s="324" t="s">
+        <v>525</v>
+      </c>
+      <c r="AL22" s="302" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM22" s="280" t="s">
+        <v>491</v>
+      </c>
+      <c r="AN22" s="258" t="s">
+        <v>475</v>
+      </c>
+      <c r="AO22" s="236" t="s">
+        <v>322</v>
+      </c>
+      <c r="AP22" s="214" t="s">
+        <v>444</v>
+      </c>
+      <c r="AQ22" s="192" t="s">
+        <v>427</v>
+      </c>
+      <c r="AR22" s="170" t="s">
+        <v>408</v>
+      </c>
+      <c r="AS22" s="148" t="s">
         <v>393</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="AT22" s="126" t="s">
         <v>377</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="AU22" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="E22" s="82" t="s">
+      <c r="AV22" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="AW22" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="AX22" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="AY22" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="AZ22" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="BA22" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="BB22" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="BC22" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="BD22" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="BE22" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="O22" s="0" t="s">
+      <c r="BF22" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="BG22" s="9" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3737,49 +10178,178 @@
       <c r="A23" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="1095" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C23" s="1073" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D23" s="1051" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E23" s="1029" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F23" s="1007" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G23" s="985" t="s">
+        <v>994</v>
+      </c>
+      <c r="H23" s="963" t="s">
+        <v>981</v>
+      </c>
+      <c r="I23" s="941" t="s">
+        <v>970</v>
+      </c>
+      <c r="J23" s="919" t="s">
+        <v>246</v>
+      </c>
+      <c r="K23" s="897" t="s">
+        <v>944</v>
+      </c>
+      <c r="L23" s="875" t="s">
+        <v>942</v>
+      </c>
+      <c r="M23" s="853" t="s">
+        <v>930</v>
+      </c>
+      <c r="N23" s="831" t="s">
+        <v>917</v>
+      </c>
+      <c r="O23" s="809" t="s">
+        <v>902</v>
+      </c>
+      <c r="P23" s="787" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q23" s="765" t="s">
+        <v>872</v>
+      </c>
+      <c r="R23" s="743" t="s">
+        <v>857</v>
+      </c>
+      <c r="S23" s="721" t="s">
+        <v>318</v>
+      </c>
+      <c r="T23" s="699" t="s">
+        <v>822</v>
+      </c>
+      <c r="U23" s="677" t="s">
+        <v>806</v>
+      </c>
+      <c r="V23" s="655" t="s">
+        <v>789</v>
+      </c>
+      <c r="W23" s="633" t="s">
+        <v>771</v>
+      </c>
+      <c r="X23" s="611" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y23" s="589" t="s">
+        <v>736</v>
+      </c>
+      <c r="Z23" s="567" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA23" s="545" t="s">
+        <v>701</v>
+      </c>
+      <c r="AB23" s="523" t="s">
+        <v>684</v>
+      </c>
+      <c r="AC23" s="501" t="s">
+        <v>663</v>
+      </c>
+      <c r="AD23" s="479" t="s">
+        <v>646</v>
+      </c>
+      <c r="AE23" s="457" t="s">
+        <v>631</v>
+      </c>
+      <c r="AF23" s="435" t="s">
+        <v>615</v>
+      </c>
+      <c r="AG23" s="413" t="s">
+        <v>597</v>
+      </c>
+      <c r="AH23" s="391" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI23" s="369" t="s">
+        <v>559</v>
+      </c>
+      <c r="AJ23" s="347" t="s">
+        <v>543</v>
+      </c>
+      <c r="AK23" s="325" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL23" s="303" t="s">
+        <v>507</v>
+      </c>
+      <c r="AM23" s="281" t="s">
+        <v>492</v>
+      </c>
+      <c r="AN23" s="259" t="s">
+        <v>476</v>
+      </c>
+      <c r="AO23" s="237" t="s">
+        <v>445</v>
+      </c>
+      <c r="AP23" s="215" t="s">
+        <v>445</v>
+      </c>
+      <c r="AQ23" s="193" t="s">
+        <v>428</v>
+      </c>
+      <c r="AR23" s="171" t="s">
+        <v>409</v>
+      </c>
+      <c r="AS23" s="149" t="s">
         <v>304</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="AT23" s="127" t="s">
         <v>339</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="AU23" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="AV23" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="AW23" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="AX23" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="AY23" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="AZ23" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="BA23" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="BB23" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="BC23" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="BD23" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="BE23" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="O23" s="0" t="s">
+      <c r="BF23" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="P23" s="0" t="s">
+      <c r="BG23" s="0" t="s">
         <v>176</v>
       </c>
     </row>
